--- a/data/dataPaper-I-in/arphified/Arthropoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Arthropoda.xlsx
@@ -1710,76 +1710,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -11646,301 +11646,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>565</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>566</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>567</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>568</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>569</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>570</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>571</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>572</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>573</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>574</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>575</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>576</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>577</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>578</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>579</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>580</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>581</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>582</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>583</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>584</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>585</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>586</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>587</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>565</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>588</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>566</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -12063,7 +12063,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Arthropoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Arthropoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="604">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1777,6 +1777,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -11895,7 +11898,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>588</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -11940,7 +11943,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -12003,13 +12006,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -12021,13 +12024,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="EB2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="EC2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -12036,13 +12039,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="EG2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="EH2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -12075,19 +12078,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="ET2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="EU2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -12118,10 +12121,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Arthropoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Arthropoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="622">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -156,7 +156,7 @@
     <t>sp.</t>
   </si>
   <si>
-    <t>Two taxa are known in the genus, one associated with salmonids (sp.A), the other with lingcod (sp.B). Reported here is that associated with lingcod, though the other likely also occurs locally.</t>
+    <t>Two taxa are known in the genus Lepeophtheirus: one associated with salmonids (reported in PMLS records as 'sp.A'); the other with lingcod ('sp.B'). The species associated with lingcod is reported for Galiano Island, though the other species likely also occurs locally.</t>
   </si>
   <si>
     <t>117672</t>
@@ -270,22 +270,61 @@
     <t>Dana, 1853</t>
   </si>
   <si>
+    <t>1128633</t>
+  </si>
+  <si>
+    <t>Malacostraca</t>
+  </si>
+  <si>
+    <t>Eumalacostraca</t>
+  </si>
+  <si>
+    <t>Peracarida</t>
+  </si>
+  <si>
+    <t>Amphipoda</t>
+  </si>
+  <si>
+    <t>Amphilochidea</t>
+  </si>
+  <si>
+    <t>Amphilochida</t>
+  </si>
+  <si>
+    <t>Amphilochoidea</t>
+  </si>
+  <si>
+    <t>Pleustidae</t>
+  </si>
+  <si>
+    <t>Gnathopleustes</t>
+  </si>
+  <si>
+    <t>pachychaetus</t>
+  </si>
+  <si>
+    <t>Bousfield &amp; Hendrycks, 1995</t>
+  </si>
+  <si>
+    <t>796029</t>
+  </si>
+  <si>
+    <t>Parapleustinae</t>
+  </si>
+  <si>
+    <t>Chromopleustes</t>
+  </si>
+  <si>
+    <t>oculatus</t>
+  </si>
+  <si>
+    <t>(Holmes, 1908)</t>
+  </si>
+  <si>
     <t>295404</t>
   </si>
   <si>
-    <t>Malacostraca</t>
-  </si>
-  <si>
-    <t>Eumalacostraca</t>
-  </si>
-  <si>
-    <t>Peracarida</t>
-  </si>
-  <si>
-    <t>Amphipoda</t>
-  </si>
-  <si>
-    <t>Amphilochidea</t>
+    <t>Lysianassida</t>
   </si>
   <si>
     <t>Synopioidea</t>
@@ -312,7 +351,7 @@
     <t>Holmes, 1908</t>
   </si>
   <si>
-    <t>313004</t>
+    <t>1265117</t>
   </si>
   <si>
     <t>unsocalae</t>
@@ -321,45 +360,45 @@
     <t>J.L. Barnard, 1960</t>
   </si>
   <si>
-    <t>1128633</t>
-  </si>
-  <si>
-    <t>Amphilochoidea</t>
-  </si>
-  <si>
-    <t>Pleustidae</t>
-  </si>
-  <si>
-    <t>Gnathopleustes</t>
-  </si>
-  <si>
-    <t>pachychaetus</t>
-  </si>
-  <si>
-    <t>Bousfield &amp; Hendrycks, 1995</t>
-  </si>
-  <si>
-    <t>796029</t>
-  </si>
-  <si>
-    <t>Parapleustinae</t>
-  </si>
-  <si>
-    <t>Chromopleustes</t>
-  </si>
-  <si>
-    <t>oculatus</t>
-  </si>
-  <si>
-    <t>(Holmes, 1908)</t>
+    <t>508889</t>
+  </si>
+  <si>
+    <t>Senticaudata</t>
+  </si>
+  <si>
+    <t>Corophiida</t>
+  </si>
+  <si>
+    <t>Caprelloidea</t>
+  </si>
+  <si>
+    <t>Caprellidae</t>
+  </si>
+  <si>
+    <t>Caprellinae</t>
+  </si>
+  <si>
+    <t>Caprella</t>
+  </si>
+  <si>
+    <t>alaskana</t>
+  </si>
+  <si>
+    <t>Mayer, 1903</t>
+  </si>
+  <si>
+    <t>64634</t>
+  </si>
+  <si>
+    <t>mutica</t>
+  </si>
+  <si>
+    <t>Schurin, 1935</t>
   </si>
   <si>
     <t>260501</t>
   </si>
   <si>
-    <t>Senticaudata</t>
-  </si>
-  <si>
     <t>Corophioidea</t>
   </si>
   <si>
@@ -375,39 +414,30 @@
     <t>Bate, 1858</t>
   </si>
   <si>
-    <t>508889</t>
-  </si>
-  <si>
-    <t>Caprelloidea</t>
-  </si>
-  <si>
-    <t>Caprellidae</t>
-  </si>
-  <si>
-    <t>Caprellinae</t>
-  </si>
-  <si>
-    <t>Caprella</t>
-  </si>
-  <si>
-    <t>alaskana</t>
-  </si>
-  <si>
-    <t>Mayer, 1903</t>
-  </si>
-  <si>
-    <t>64634</t>
-  </si>
-  <si>
-    <t>mutica</t>
-  </si>
-  <si>
-    <t>Schurin, 1935</t>
+    <t>295828</t>
+  </si>
+  <si>
+    <t>Photoidea</t>
+  </si>
+  <si>
+    <t>Photidae</t>
+  </si>
+  <si>
+    <t>Photis</t>
+  </si>
+  <si>
+    <t>brevipes</t>
+  </si>
+  <si>
+    <t>Shoemaker, 1942</t>
   </si>
   <si>
     <t>1128629</t>
   </si>
   <si>
+    <t>Hadziida</t>
+  </si>
+  <si>
     <t>Hadzioidea</t>
   </si>
   <si>
@@ -432,27 +462,12 @@
     <t>Jarrett &amp; Bousfield, 1996</t>
   </si>
   <si>
-    <t>295828</t>
-  </si>
-  <si>
-    <t>Photoidea</t>
-  </si>
-  <si>
-    <t>Photidae</t>
-  </si>
-  <si>
-    <t>Photis</t>
-  </si>
-  <si>
-    <t>brevipes</t>
-  </si>
-  <si>
-    <t>Shoemaker, 1942</t>
-  </si>
-  <si>
     <t>345335</t>
   </si>
   <si>
+    <t>Talitrida</t>
+  </si>
+  <si>
     <t>Talitroidea</t>
   </si>
   <si>
@@ -507,13 +522,271 @@
     <t>(Hansen, 1903)</t>
   </si>
   <si>
-    <t>Accessioned in the RBCM collections as Sergestes similis, an unaccepted synonym according to WoRMS (2021).</t>
+    <t>Accessioned in the RBCM collections as Sergestes similis, an unaccepted synonym (WoRMS Editorial Board 2021).</t>
+  </si>
+  <si>
+    <t>334674</t>
+  </si>
+  <si>
+    <t>Pleocyemata</t>
+  </si>
+  <si>
+    <t>Anomura</t>
+  </si>
+  <si>
+    <t>Galatheoidea</t>
+  </si>
+  <si>
+    <t>Munididae</t>
+  </si>
+  <si>
+    <t>Munida</t>
+  </si>
+  <si>
+    <t>quadrispina</t>
+  </si>
+  <si>
+    <t>Benedict, 1902</t>
+  </si>
+  <si>
+    <t>47803</t>
+  </si>
+  <si>
+    <t>Porcellanidae</t>
+  </si>
+  <si>
+    <t>Petrolisthes</t>
+  </si>
+  <si>
+    <t>eriomerus</t>
+  </si>
+  <si>
+    <t>Stimpson, 1871</t>
+  </si>
+  <si>
+    <t>450310</t>
+  </si>
+  <si>
+    <t>Lithodoidea</t>
+  </si>
+  <si>
+    <t>Hapalogastridae</t>
+  </si>
+  <si>
+    <t>Acantholithodes</t>
+  </si>
+  <si>
+    <t>hispidus</t>
+  </si>
+  <si>
+    <t>(Stimpson, 1860)</t>
+  </si>
+  <si>
+    <t>51635</t>
+  </si>
+  <si>
+    <t>Hapalogaster</t>
+  </si>
+  <si>
+    <t>mertensii</t>
+  </si>
+  <si>
+    <t>J.F. Brandt, 1850</t>
+  </si>
+  <si>
+    <t>194566</t>
+  </si>
+  <si>
+    <t>Oedignathus</t>
+  </si>
+  <si>
+    <t>inermis</t>
+  </si>
+  <si>
+    <t>459657</t>
+  </si>
+  <si>
+    <t>Placetron</t>
+  </si>
+  <si>
+    <t>wosnessenskii</t>
+  </si>
+  <si>
+    <t>Schalfeew, 1892</t>
+  </si>
+  <si>
+    <t>47395</t>
+  </si>
+  <si>
+    <t>Lithodidae</t>
+  </si>
+  <si>
+    <t>Cryptolithodes</t>
+  </si>
+  <si>
+    <t>sitchensis</t>
+  </si>
+  <si>
+    <t>J.F. Brandt, 1853</t>
+  </si>
+  <si>
+    <t>53845</t>
+  </si>
+  <si>
+    <t>typicus</t>
+  </si>
+  <si>
+    <t>J.F. Brandt, 1848</t>
+  </si>
+  <si>
+    <t>459606</t>
+  </si>
+  <si>
+    <t>Lopholithodes</t>
+  </si>
+  <si>
+    <t>foraminatus</t>
+  </si>
+  <si>
+    <t>(Stimpson, 1859)</t>
+  </si>
+  <si>
+    <t>459608</t>
+  </si>
+  <si>
+    <t>mandtii</t>
+  </si>
+  <si>
+    <t>424896</t>
+  </si>
+  <si>
+    <t>Phyllolithodes</t>
+  </si>
+  <si>
+    <t>papillosus</t>
+  </si>
+  <si>
+    <t>459660</t>
+  </si>
+  <si>
+    <t>Rhinolithodes</t>
+  </si>
+  <si>
+    <t>459564</t>
+  </si>
+  <si>
+    <t>Paguroidea</t>
+  </si>
+  <si>
+    <t>Paguridae</t>
+  </si>
+  <si>
+    <t>Discorsopagurus</t>
+  </si>
+  <si>
+    <t>schmitti</t>
+  </si>
+  <si>
+    <t>(Stevens, 1925)</t>
+  </si>
+  <si>
+    <t>459568</t>
+  </si>
+  <si>
+    <t>Elassochirus</t>
+  </si>
+  <si>
+    <t>gilli</t>
+  </si>
+  <si>
+    <t>(Benedict, 1892)</t>
+  </si>
+  <si>
+    <t>459569</t>
+  </si>
+  <si>
+    <t>tenuimanus</t>
+  </si>
+  <si>
+    <t>(Dana, 1851)</t>
+  </si>
+  <si>
+    <t>459543</t>
+  </si>
+  <si>
+    <t>Pagurus</t>
+  </si>
+  <si>
+    <t>armatus</t>
+  </si>
+  <si>
+    <t>362749</t>
+  </si>
+  <si>
+    <t>beringanus</t>
+  </si>
+  <si>
+    <t>180026</t>
+  </si>
+  <si>
+    <t>caurinus</t>
+  </si>
+  <si>
+    <t>Hart, 1971</t>
+  </si>
+  <si>
+    <t>127555</t>
+  </si>
+  <si>
+    <t>granosimanus</t>
+  </si>
+  <si>
+    <t>63219</t>
+  </si>
+  <si>
+    <t>hirsutiusculus</t>
+  </si>
+  <si>
+    <t>459637</t>
+  </si>
+  <si>
+    <t>kennerlyi</t>
+  </si>
+  <si>
+    <t>(Stimpson, 1864)</t>
+  </si>
+  <si>
+    <t>202044</t>
+  </si>
+  <si>
+    <t>ochotensis</t>
+  </si>
+  <si>
+    <t>Brandt, 1851</t>
+  </si>
+  <si>
+    <t>366957</t>
+  </si>
+  <si>
+    <t>quaylei</t>
+  </si>
+  <si>
+    <t>49095</t>
+  </si>
+  <si>
+    <t>samuelis</t>
+  </si>
+  <si>
+    <t>459640</t>
+  </si>
+  <si>
+    <t>stevensae</t>
   </si>
   <si>
     <t>56659</t>
   </si>
   <si>
-    <t>Pleocyemata</t>
+    <t>Axiidea</t>
   </si>
   <si>
     <t>Callianassidae</t>
@@ -531,6 +804,9 @@
     <t>47826</t>
   </si>
   <si>
+    <t>Brachyura</t>
+  </si>
+  <si>
     <t>Cancroidea</t>
   </si>
   <si>
@@ -591,6 +867,216 @@
     <t>(Tilesius, 1815)</t>
   </si>
   <si>
+    <t>48342</t>
+  </si>
+  <si>
+    <t>Grapsoidea</t>
+  </si>
+  <si>
+    <t>Varunidae</t>
+  </si>
+  <si>
+    <t>Varuninae</t>
+  </si>
+  <si>
+    <t>Hemigrapsus</t>
+  </si>
+  <si>
+    <t>nudus</t>
+  </si>
+  <si>
+    <t>69170</t>
+  </si>
+  <si>
+    <t>130344</t>
+  </si>
+  <si>
+    <t>Majoidea</t>
+  </si>
+  <si>
+    <t>Epialtidae</t>
+  </si>
+  <si>
+    <t>Epialtinae</t>
+  </si>
+  <si>
+    <t>Pugettia</t>
+  </si>
+  <si>
+    <t>Dana, 1851</t>
+  </si>
+  <si>
+    <t>49723</t>
+  </si>
+  <si>
+    <t>producta</t>
+  </si>
+  <si>
+    <t>(Randall, 1840)</t>
+  </si>
+  <si>
+    <t>459559</t>
+  </si>
+  <si>
+    <t>Pisinae</t>
+  </si>
+  <si>
+    <t>Chorilia</t>
+  </si>
+  <si>
+    <t>longipes</t>
+  </si>
+  <si>
+    <t>47712</t>
+  </si>
+  <si>
+    <t>Scyra</t>
+  </si>
+  <si>
+    <t>acutifrons</t>
+  </si>
+  <si>
+    <t>459591</t>
+  </si>
+  <si>
+    <t>Oregoniidae</t>
+  </si>
+  <si>
+    <t>Oregoniinae</t>
+  </si>
+  <si>
+    <t>Hyas</t>
+  </si>
+  <si>
+    <t>lyratus</t>
+  </si>
+  <si>
+    <t>84267</t>
+  </si>
+  <si>
+    <t>Oregonia</t>
+  </si>
+  <si>
+    <t>117669</t>
+  </si>
+  <si>
+    <t>Pinnotheroidea</t>
+  </si>
+  <si>
+    <t>Pinnotheridae</t>
+  </si>
+  <si>
+    <t>Pinnotherinae</t>
+  </si>
+  <si>
+    <t>Fabia</t>
+  </si>
+  <si>
+    <t>subquadrata</t>
+  </si>
+  <si>
+    <t>50818</t>
+  </si>
+  <si>
+    <t>Xanthoidea</t>
+  </si>
+  <si>
+    <t>Panopeidae</t>
+  </si>
+  <si>
+    <t>Lophopanopeus</t>
+  </si>
+  <si>
+    <t>bellus</t>
+  </si>
+  <si>
+    <t>459508</t>
+  </si>
+  <si>
+    <t>Caridea</t>
+  </si>
+  <si>
+    <t>Alpheoidea</t>
+  </si>
+  <si>
+    <t>Thoridae</t>
+  </si>
+  <si>
+    <t>Eualus</t>
+  </si>
+  <si>
+    <t>butleri</t>
+  </si>
+  <si>
+    <t>Jensen, 2004</t>
+  </si>
+  <si>
+    <t>63679</t>
+  </si>
+  <si>
+    <t>Heptacarpus</t>
+  </si>
+  <si>
+    <t>brevirostris</t>
+  </si>
+  <si>
+    <t>459524</t>
+  </si>
+  <si>
+    <t>kincaidi</t>
+  </si>
+  <si>
+    <t>(Rathbun, 1902)</t>
+  </si>
+  <si>
+    <t>458674</t>
+  </si>
+  <si>
+    <t>stylus</t>
+  </si>
+  <si>
+    <t>459522</t>
+  </si>
+  <si>
+    <t>tridens</t>
+  </si>
+  <si>
+    <t>459480</t>
+  </si>
+  <si>
+    <t>Lebbeus</t>
+  </si>
+  <si>
+    <t>eludus</t>
+  </si>
+  <si>
+    <t>Jensen, 2006</t>
+  </si>
+  <si>
+    <t>459598</t>
+  </si>
+  <si>
+    <t>grandimanus</t>
+  </si>
+  <si>
+    <t>(Bražnikov, 1907)</t>
+  </si>
+  <si>
+    <t>459601</t>
+  </si>
+  <si>
+    <t>mundus</t>
+  </si>
+  <si>
+    <t>424249</t>
+  </si>
+  <si>
+    <t>Spirontocaris</t>
+  </si>
+  <si>
+    <t>prionota</t>
+  </si>
+  <si>
     <t>339110</t>
   </si>
   <si>
@@ -618,312 +1104,6 @@
     <t>munita</t>
   </si>
   <si>
-    <t>130344</t>
-  </si>
-  <si>
-    <t>Majoidea</t>
-  </si>
-  <si>
-    <t>Epialtidae</t>
-  </si>
-  <si>
-    <t>Epialtinae</t>
-  </si>
-  <si>
-    <t>Pugettia</t>
-  </si>
-  <si>
-    <t>Dana, 1851</t>
-  </si>
-  <si>
-    <t>49723</t>
-  </si>
-  <si>
-    <t>producta</t>
-  </si>
-  <si>
-    <t>(Randall, 1840)</t>
-  </si>
-  <si>
-    <t>459559</t>
-  </si>
-  <si>
-    <t>Pisinae</t>
-  </si>
-  <si>
-    <t>Chorilia</t>
-  </si>
-  <si>
-    <t>longipes</t>
-  </si>
-  <si>
-    <t>47712</t>
-  </si>
-  <si>
-    <t>Scyra</t>
-  </si>
-  <si>
-    <t>acutifrons</t>
-  </si>
-  <si>
-    <t>450310</t>
-  </si>
-  <si>
-    <t>Lithodoidea</t>
-  </si>
-  <si>
-    <t>Hapalogastridae</t>
-  </si>
-  <si>
-    <t>Acantholithodes</t>
-  </si>
-  <si>
-    <t>hispidus</t>
-  </si>
-  <si>
-    <t>(Stimpson, 1860)</t>
-  </si>
-  <si>
-    <t>51635</t>
-  </si>
-  <si>
-    <t>Hapalogaster</t>
-  </si>
-  <si>
-    <t>mertensii</t>
-  </si>
-  <si>
-    <t>J.F. Brandt, 1850</t>
-  </si>
-  <si>
-    <t>194566</t>
-  </si>
-  <si>
-    <t>Oedignathus</t>
-  </si>
-  <si>
-    <t>inermis</t>
-  </si>
-  <si>
-    <t>459657</t>
-  </si>
-  <si>
-    <t>Placetron</t>
-  </si>
-  <si>
-    <t>wosnessenskii</t>
-  </si>
-  <si>
-    <t>Schalfeew, 1892</t>
-  </si>
-  <si>
-    <t>47395</t>
-  </si>
-  <si>
-    <t>Lithodidae</t>
-  </si>
-  <si>
-    <t>Cryptolithodes</t>
-  </si>
-  <si>
-    <t>sitchensis</t>
-  </si>
-  <si>
-    <t>J.F. Brandt, 1853</t>
-  </si>
-  <si>
-    <t>53845</t>
-  </si>
-  <si>
-    <t>typicus</t>
-  </si>
-  <si>
-    <t>J.F. Brandt, 1848</t>
-  </si>
-  <si>
-    <t>459606</t>
-  </si>
-  <si>
-    <t>Lopholithodes</t>
-  </si>
-  <si>
-    <t>foraminatus</t>
-  </si>
-  <si>
-    <t>(Stimpson, 1859)</t>
-  </si>
-  <si>
-    <t>459608</t>
-  </si>
-  <si>
-    <t>mandtii</t>
-  </si>
-  <si>
-    <t>424896</t>
-  </si>
-  <si>
-    <t>Phyllolithodes</t>
-  </si>
-  <si>
-    <t>papillosus</t>
-  </si>
-  <si>
-    <t>459660</t>
-  </si>
-  <si>
-    <t>Rhinolithodes</t>
-  </si>
-  <si>
-    <t>334674</t>
-  </si>
-  <si>
-    <t>Galatheoidea</t>
-  </si>
-  <si>
-    <t>Munididae</t>
-  </si>
-  <si>
-    <t>Munida</t>
-  </si>
-  <si>
-    <t>quadrispina</t>
-  </si>
-  <si>
-    <t>Benedict, 1902</t>
-  </si>
-  <si>
-    <t>459591</t>
-  </si>
-  <si>
-    <t>Oregoniidae</t>
-  </si>
-  <si>
-    <t>Oregoniinae</t>
-  </si>
-  <si>
-    <t>Hyas</t>
-  </si>
-  <si>
-    <t>lyratus</t>
-  </si>
-  <si>
-    <t>84267</t>
-  </si>
-  <si>
-    <t>Oregonia</t>
-  </si>
-  <si>
-    <t>459564</t>
-  </si>
-  <si>
-    <t>Paguroidea</t>
-  </si>
-  <si>
-    <t>Paguridae</t>
-  </si>
-  <si>
-    <t>Discorsopagurus</t>
-  </si>
-  <si>
-    <t>schmitti</t>
-  </si>
-  <si>
-    <t>(Stevens, 1925)</t>
-  </si>
-  <si>
-    <t>459568</t>
-  </si>
-  <si>
-    <t>Elassochirus</t>
-  </si>
-  <si>
-    <t>gilli</t>
-  </si>
-  <si>
-    <t>(Benedict, 1892)</t>
-  </si>
-  <si>
-    <t>459569</t>
-  </si>
-  <si>
-    <t>tenuimanus</t>
-  </si>
-  <si>
-    <t>(Dana, 1851)</t>
-  </si>
-  <si>
-    <t>459543</t>
-  </si>
-  <si>
-    <t>Pagurus</t>
-  </si>
-  <si>
-    <t>armatus</t>
-  </si>
-  <si>
-    <t>362749</t>
-  </si>
-  <si>
-    <t>beringanus</t>
-  </si>
-  <si>
-    <t>180026</t>
-  </si>
-  <si>
-    <t>caurinus</t>
-  </si>
-  <si>
-    <t>Hart, 1971</t>
-  </si>
-  <si>
-    <t>127555</t>
-  </si>
-  <si>
-    <t>granosimanus</t>
-  </si>
-  <si>
-    <t>63219</t>
-  </si>
-  <si>
-    <t>hirsutiusculus</t>
-  </si>
-  <si>
-    <t>459637</t>
-  </si>
-  <si>
-    <t>kennerlyi</t>
-  </si>
-  <si>
-    <t>(Stimpson, 1864)</t>
-  </si>
-  <si>
-    <t>202044</t>
-  </si>
-  <si>
-    <t>ochotensis</t>
-  </si>
-  <si>
-    <t>Brandt, 1851</t>
-  </si>
-  <si>
-    <t>366957</t>
-  </si>
-  <si>
-    <t>quaylei</t>
-  </si>
-  <si>
-    <t>49095</t>
-  </si>
-  <si>
-    <t>samuelis</t>
-  </si>
-  <si>
-    <t>459640</t>
-  </si>
-  <si>
-    <t>stevensae</t>
-  </si>
-  <si>
     <t>437504</t>
   </si>
   <si>
@@ -969,7 +1149,7 @@
     <t>(Jensen, 1998)</t>
   </si>
   <si>
-    <t>The genus name Pandalus is adopted as per WoRMS (2021), though there is some contention regarding this matter. "Since generic splits are rather arbitrary, I am not sure why they [split off Pandalus lucidirimicolus] when all the Pandalopsis fall out together in their tree" (Gregory Jensen, pers. comm. 2019).</t>
+    <t>The genus Pandalus is adopted instead of Pandalopsis as per WoRMS Editorial Board (2021), though there is some contention regarding this matter. "Since generic splits are rather arbitrary, I am not sure why they split off Pandalus lucidirimicolus when all the Pandalopsis fall out together in their tree" (Gregory Jensen pers. comm. 2019).</t>
   </si>
   <si>
     <t>180394</t>
@@ -990,159 +1170,6 @@
     <t>Rathbun, 1902</t>
   </si>
   <si>
-    <t>50818</t>
-  </si>
-  <si>
-    <t>Xanthoidea</t>
-  </si>
-  <si>
-    <t>Panopeidae</t>
-  </si>
-  <si>
-    <t>Lophopanopeus</t>
-  </si>
-  <si>
-    <t>bellus</t>
-  </si>
-  <si>
-    <t>117669</t>
-  </si>
-  <si>
-    <t>Pinnotheroidea</t>
-  </si>
-  <si>
-    <t>Pinnotheridae</t>
-  </si>
-  <si>
-    <t>Pinnotherinae</t>
-  </si>
-  <si>
-    <t>Fabia</t>
-  </si>
-  <si>
-    <t>subquadrata</t>
-  </si>
-  <si>
-    <t>47803</t>
-  </si>
-  <si>
-    <t>Porcellanidae</t>
-  </si>
-  <si>
-    <t>Petrolisthes</t>
-  </si>
-  <si>
-    <t>eriomerus</t>
-  </si>
-  <si>
-    <t>Stimpson, 1871</t>
-  </si>
-  <si>
-    <t>459508</t>
-  </si>
-  <si>
-    <t>Alpheoidea</t>
-  </si>
-  <si>
-    <t>Thoridae</t>
-  </si>
-  <si>
-    <t>Eualus</t>
-  </si>
-  <si>
-    <t>butleri</t>
-  </si>
-  <si>
-    <t>Jensen, 2004</t>
-  </si>
-  <si>
-    <t>63679</t>
-  </si>
-  <si>
-    <t>Heptacarpus</t>
-  </si>
-  <si>
-    <t>brevirostris</t>
-  </si>
-  <si>
-    <t>459524</t>
-  </si>
-  <si>
-    <t>kincaidi</t>
-  </si>
-  <si>
-    <t>(Rathbun, 1902)</t>
-  </si>
-  <si>
-    <t>458674</t>
-  </si>
-  <si>
-    <t>stylus</t>
-  </si>
-  <si>
-    <t>459522</t>
-  </si>
-  <si>
-    <t>tridens</t>
-  </si>
-  <si>
-    <t>459480</t>
-  </si>
-  <si>
-    <t>Lebbeus</t>
-  </si>
-  <si>
-    <t>eludus</t>
-  </si>
-  <si>
-    <t>Jensen, 2006</t>
-  </si>
-  <si>
-    <t>459598</t>
-  </si>
-  <si>
-    <t>grandimanus</t>
-  </si>
-  <si>
-    <t>(Bražnikov, 1907)</t>
-  </si>
-  <si>
-    <t>459601</t>
-  </si>
-  <si>
-    <t>mundus</t>
-  </si>
-  <si>
-    <t>424249</t>
-  </si>
-  <si>
-    <t>Spirontocaris</t>
-  </si>
-  <si>
-    <t>prionota</t>
-  </si>
-  <si>
-    <t>48342</t>
-  </si>
-  <si>
-    <t>Grapsoidea</t>
-  </si>
-  <si>
-    <t>Varunidae</t>
-  </si>
-  <si>
-    <t>Varuninae</t>
-  </si>
-  <si>
-    <t>Hemigrapsus</t>
-  </si>
-  <si>
-    <t>nudus</t>
-  </si>
-  <si>
-    <t>69170</t>
-  </si>
-  <si>
     <t>195136</t>
   </si>
   <si>
@@ -1170,6 +1197,9 @@
     <t>Cymothoida</t>
   </si>
   <si>
+    <t>Epicaridea</t>
+  </si>
+  <si>
     <t>Bopyroidea</t>
   </si>
   <si>
@@ -1359,6 +1389,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -1731,7 +1770,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -1746,6 +1785,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -1755,6 +1803,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -1789,6 +1840,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -3175,13 +3229,13 @@
         <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
         <v>36</v>
@@ -3193,13 +3247,13 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
         <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U10" t="s">
         <v>36</v>
@@ -3211,7 +3265,7 @@
         <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y10" t="s">
         <v>36</v>
@@ -3246,7 +3300,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -3279,16 +3333,16 @@
         <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s">
         <v>36</v>
@@ -3297,13 +3351,13 @@
         <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="S11" t="s">
         <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U11" t="s">
         <v>36</v>
@@ -3315,7 +3369,7 @@
         <v>36</v>
       </c>
       <c r="X11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Y11" t="s">
         <v>36</v>
@@ -3350,7 +3404,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -3383,13 +3437,13 @@
         <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="O12" t="s">
         <v>36</v>
@@ -3401,13 +3455,13 @@
         <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="S12" t="s">
         <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="U12" t="s">
         <v>36</v>
@@ -3419,7 +3473,7 @@
         <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y12" t="s">
         <v>36</v>
@@ -3454,7 +3508,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -3487,13 +3541,13 @@
         <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
         <v>36</v>
@@ -3505,13 +3559,13 @@
         <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S13" t="s">
         <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="U13" t="s">
         <v>36</v>
@@ -3523,7 +3577,7 @@
         <v>36</v>
       </c>
       <c r="X13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Y13" t="s">
         <v>36</v>
@@ -3558,7 +3612,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -3591,16 +3645,16 @@
         <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
         <v>36</v>
@@ -3609,13 +3663,13 @@
         <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="S14" t="s">
         <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="U14" t="s">
         <v>36</v>
@@ -3627,7 +3681,7 @@
         <v>36</v>
       </c>
       <c r="X14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y14" t="s">
         <v>36</v>
@@ -3662,7 +3716,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -3692,19 +3746,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="P15" t="s">
         <v>36</v>
@@ -3713,13 +3767,13 @@
         <v>36</v>
       </c>
       <c r="R15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="S15" t="s">
         <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="U15" t="s">
         <v>36</v>
@@ -3731,7 +3785,7 @@
         <v>36</v>
       </c>
       <c r="X15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Y15" t="s">
         <v>36</v>
@@ -3766,7 +3820,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -3796,28 +3850,28 @@
         <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s">
         <v>121</v>
-      </c>
-      <c r="N16" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" t="s">
-        <v>124</v>
       </c>
       <c r="S16" t="s">
         <v>36</v>
@@ -3900,19 +3954,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M17" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -3921,13 +3975,13 @@
         <v>36</v>
       </c>
       <c r="R17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="S17" t="s">
         <v>36</v>
       </c>
       <c r="T17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="U17" t="s">
         <v>36</v>
@@ -3939,7 +3993,7 @@
         <v>36</v>
       </c>
       <c r="X17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Y17" t="s">
         <v>36</v>
@@ -3974,7 +4028,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -4004,16 +4058,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O18" t="s">
         <v>36</v>
@@ -4025,13 +4079,13 @@
         <v>36</v>
       </c>
       <c r="R18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S18" t="s">
         <v>36</v>
       </c>
       <c r="T18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="U18" t="s">
         <v>36</v>
@@ -4043,7 +4097,7 @@
         <v>36</v>
       </c>
       <c r="X18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Y18" t="s">
         <v>36</v>
@@ -4078,7 +4132,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -4108,16 +4162,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O19" t="s">
         <v>36</v>
@@ -4129,13 +4183,13 @@
         <v>36</v>
       </c>
       <c r="R19" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="S19" t="s">
         <v>36</v>
       </c>
       <c r="T19" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="U19" t="s">
         <v>36</v>
@@ -4147,7 +4201,7 @@
         <v>36</v>
       </c>
       <c r="X19" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Y19" t="s">
         <v>36</v>
@@ -4182,7 +4236,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -4212,16 +4266,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="M20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O20" t="s">
         <v>36</v>
@@ -4233,13 +4287,13 @@
         <v>36</v>
       </c>
       <c r="R20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S20" t="s">
         <v>36</v>
       </c>
       <c r="T20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="U20" t="s">
         <v>36</v>
@@ -4251,7 +4305,7 @@
         <v>36</v>
       </c>
       <c r="X20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Y20" t="s">
         <v>36</v>
@@ -4286,7 +4340,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -4316,19 +4370,19 @@
         <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P21" t="s">
         <v>36</v>
@@ -4337,7 +4391,7 @@
         <v>36</v>
       </c>
       <c r="R21" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="S21" t="s">
         <v>36</v>
@@ -4355,7 +4409,7 @@
         <v>36</v>
       </c>
       <c r="X21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Y21" t="s">
         <v>36</v>
@@ -4390,7 +4444,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -4420,19 +4474,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P22" t="s">
         <v>36</v>
@@ -4441,13 +4495,13 @@
         <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="S22" t="s">
         <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="U22" t="s">
         <v>36</v>
@@ -4459,7 +4513,7 @@
         <v>36</v>
       </c>
       <c r="X22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Y22" t="s">
         <v>36</v>
@@ -4494,7 +4548,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -4518,22 +4572,22 @@
         <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s">
         <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
         <v>36</v>
@@ -4545,13 +4599,13 @@
         <v>36</v>
       </c>
       <c r="R23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="S23" t="s">
         <v>36</v>
       </c>
       <c r="T23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="U23" t="s">
         <v>36</v>
@@ -4563,7 +4617,7 @@
         <v>36</v>
       </c>
       <c r="X23" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Y23" t="s">
         <v>36</v>
@@ -4593,12 +4647,12 @@
         <v>36</v>
       </c>
       <c r="AH23" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -4622,22 +4676,22 @@
         <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="N24" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s">
         <v>36</v>
@@ -4649,13 +4703,13 @@
         <v>36</v>
       </c>
       <c r="R24" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="S24" t="s">
         <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="U24" t="s">
         <v>36</v>
@@ -4667,7 +4721,7 @@
         <v>36</v>
       </c>
       <c r="X24" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Y24" t="s">
         <v>36</v>
@@ -4702,7 +4756,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -4726,22 +4780,22 @@
         <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s">
         <v>36</v>
@@ -4753,13 +4807,13 @@
         <v>36</v>
       </c>
       <c r="R25" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S25" t="s">
         <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="U25" t="s">
         <v>36</v>
@@ -4771,7 +4825,7 @@
         <v>36</v>
       </c>
       <c r="X25" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Y25" t="s">
         <v>36</v>
@@ -4806,7 +4860,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -4830,22 +4884,22 @@
         <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O26" t="s">
         <v>36</v>
@@ -4857,13 +4911,13 @@
         <v>36</v>
       </c>
       <c r="R26" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="S26" t="s">
         <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="U26" t="s">
         <v>36</v>
@@ -4875,7 +4929,7 @@
         <v>36</v>
       </c>
       <c r="X26" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Y26" t="s">
         <v>36</v>
@@ -4910,7 +4964,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -4934,22 +4988,22 @@
         <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M27" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O27" t="s">
         <v>36</v>
@@ -4961,13 +5015,13 @@
         <v>36</v>
       </c>
       <c r="R27" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="S27" t="s">
         <v>36</v>
       </c>
       <c r="T27" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="U27" t="s">
         <v>36</v>
@@ -4979,7 +5033,7 @@
         <v>36</v>
       </c>
       <c r="X27" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Y27" t="s">
         <v>36</v>
@@ -5014,7 +5068,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -5038,22 +5092,22 @@
         <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="N28" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O28" t="s">
         <v>36</v>
@@ -5065,13 +5119,13 @@
         <v>36</v>
       </c>
       <c r="R28" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="S28" t="s">
         <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="U28" t="s">
         <v>36</v>
@@ -5083,7 +5137,7 @@
         <v>36</v>
       </c>
       <c r="X28" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Y28" t="s">
         <v>36</v>
@@ -5118,7 +5172,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -5142,22 +5196,22 @@
         <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O29" t="s">
         <v>36</v>
@@ -5169,13 +5223,13 @@
         <v>36</v>
       </c>
       <c r="R29" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="S29" t="s">
         <v>36</v>
       </c>
       <c r="T29" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="U29" t="s">
         <v>36</v>
@@ -5187,7 +5241,7 @@
         <v>36</v>
       </c>
       <c r="X29" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Y29" t="s">
         <v>36</v>
@@ -5222,7 +5276,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -5246,22 +5300,22 @@
         <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="N30" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s">
         <v>36</v>
@@ -5273,13 +5327,13 @@
         <v>36</v>
       </c>
       <c r="R30" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="S30" t="s">
         <v>36</v>
       </c>
       <c r="T30" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="U30" t="s">
         <v>36</v>
@@ -5291,7 +5345,7 @@
         <v>36</v>
       </c>
       <c r="X30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Y30" t="s">
         <v>36</v>
@@ -5326,7 +5380,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -5350,22 +5404,22 @@
         <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="N31" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O31" t="s">
         <v>36</v>
@@ -5377,13 +5431,13 @@
         <v>36</v>
       </c>
       <c r="R31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S31" t="s">
         <v>36</v>
       </c>
       <c r="T31" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="U31" t="s">
         <v>36</v>
@@ -5395,7 +5449,7 @@
         <v>36</v>
       </c>
       <c r="X31" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="Y31" t="s">
         <v>36</v>
@@ -5430,7 +5484,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -5454,25 +5508,25 @@
         <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -5481,13 +5535,13 @@
         <v>36</v>
       </c>
       <c r="R32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="S32" t="s">
         <v>36</v>
       </c>
       <c r="T32" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="U32" t="s">
         <v>36</v>
@@ -5499,7 +5553,7 @@
         <v>36</v>
       </c>
       <c r="X32" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Y32" t="s">
         <v>36</v>
@@ -5534,7 +5588,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -5558,25 +5612,25 @@
         <v>87</v>
       </c>
       <c r="I33" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M33" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="N33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O33" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="P33" t="s">
         <v>36</v>
@@ -5585,13 +5639,13 @@
         <v>36</v>
       </c>
       <c r="R33" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="S33" t="s">
         <v>36</v>
       </c>
       <c r="T33" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="U33" t="s">
         <v>36</v>
@@ -5603,7 +5657,7 @@
         <v>36</v>
       </c>
       <c r="X33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y33" t="s">
         <v>36</v>
@@ -5638,7 +5692,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -5662,25 +5716,25 @@
         <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="N34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O34" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="P34" t="s">
         <v>36</v>
@@ -5689,13 +5743,13 @@
         <v>36</v>
       </c>
       <c r="R34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S34" t="s">
         <v>36</v>
       </c>
       <c r="T34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="U34" t="s">
         <v>36</v>
@@ -5707,7 +5761,7 @@
         <v>36</v>
       </c>
       <c r="X34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y34" t="s">
         <v>36</v>
@@ -5742,7 +5796,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -5766,25 +5820,25 @@
         <v>87</v>
       </c>
       <c r="I35" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O35" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -5793,13 +5847,13 @@
         <v>36</v>
       </c>
       <c r="R35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S35" t="s">
         <v>36</v>
       </c>
       <c r="T35" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="U35" t="s">
         <v>36</v>
@@ -5811,7 +5865,7 @@
         <v>36</v>
       </c>
       <c r="X35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y35" t="s">
         <v>36</v>
@@ -5846,7 +5900,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -5870,22 +5924,22 @@
         <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K36" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O36" t="s">
         <v>36</v>
@@ -5897,13 +5951,13 @@
         <v>36</v>
       </c>
       <c r="R36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="S36" t="s">
         <v>36</v>
       </c>
       <c r="T36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="U36" t="s">
         <v>36</v>
@@ -5915,7 +5969,7 @@
         <v>36</v>
       </c>
       <c r="X36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Y36" t="s">
         <v>36</v>
@@ -5950,7 +6004,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -5974,22 +6028,22 @@
         <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O37" t="s">
         <v>36</v>
@@ -6001,13 +6055,13 @@
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
       </c>
       <c r="T37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U37" t="s">
         <v>36</v>
@@ -6019,7 +6073,7 @@
         <v>36</v>
       </c>
       <c r="X37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Y37" t="s">
         <v>36</v>
@@ -6054,7 +6108,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -6078,22 +6132,22 @@
         <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J38" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O38" t="s">
         <v>36</v>
@@ -6105,13 +6159,13 @@
         <v>36</v>
       </c>
       <c r="R38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S38" t="s">
         <v>36</v>
       </c>
       <c r="T38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U38" t="s">
         <v>36</v>
@@ -6123,7 +6177,7 @@
         <v>36</v>
       </c>
       <c r="X38" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Y38" t="s">
         <v>36</v>
@@ -6158,7 +6212,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -6182,22 +6236,22 @@
         <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J39" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O39" t="s">
         <v>36</v>
@@ -6209,25 +6263,25 @@
         <v>36</v>
       </c>
       <c r="R39" t="s">
+        <v>233</v>
+      </c>
+      <c r="S39" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s">
+        <v>234</v>
+      </c>
+      <c r="U39" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" t="s">
+        <v>36</v>
+      </c>
+      <c r="X39" t="s">
         <v>231</v>
-      </c>
-      <c r="S39" t="s">
-        <v>36</v>
-      </c>
-      <c r="T39" t="s">
-        <v>232</v>
-      </c>
-      <c r="U39" t="s">
-        <v>36</v>
-      </c>
-      <c r="V39" t="s">
-        <v>36</v>
-      </c>
-      <c r="W39" t="s">
-        <v>36</v>
-      </c>
-      <c r="X39" t="s">
-        <v>233</v>
       </c>
       <c r="Y39" t="s">
         <v>36</v>
@@ -6262,7 +6316,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -6286,22 +6340,22 @@
         <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N40" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O40" t="s">
         <v>36</v>
@@ -6313,14 +6367,14 @@
         <v>36</v>
       </c>
       <c r="R40" t="s">
+        <v>233</v>
+      </c>
+      <c r="S40" t="s">
+        <v>36</v>
+      </c>
+      <c r="T40" t="s">
         <v>236</v>
       </c>
-      <c r="S40" t="s">
-        <v>36</v>
-      </c>
-      <c r="T40" t="s">
-        <v>237</v>
-      </c>
       <c r="U40" t="s">
         <v>36</v>
       </c>
@@ -6331,7 +6385,7 @@
         <v>36</v>
       </c>
       <c r="X40" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="Y40" t="s">
         <v>36</v>
@@ -6366,7 +6420,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -6390,22 +6444,22 @@
         <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J41" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N41" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O41" t="s">
         <v>36</v>
@@ -6417,13 +6471,13 @@
         <v>36</v>
       </c>
       <c r="R41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S41" t="s">
         <v>36</v>
       </c>
       <c r="T41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U41" t="s">
         <v>36</v>
@@ -6435,7 +6489,7 @@
         <v>36</v>
       </c>
       <c r="X41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y41" t="s">
         <v>36</v>
@@ -6470,7 +6524,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -6494,22 +6548,22 @@
         <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K42" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O42" t="s">
         <v>36</v>
@@ -6521,13 +6575,13 @@
         <v>36</v>
       </c>
       <c r="R42" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S42" t="s">
         <v>36</v>
       </c>
       <c r="T42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U42" t="s">
         <v>36</v>
@@ -6539,7 +6593,7 @@
         <v>36</v>
       </c>
       <c r="X42" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="Y42" t="s">
         <v>36</v>
@@ -6574,7 +6628,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -6598,22 +6652,22 @@
         <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K43" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N43" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O43" t="s">
         <v>36</v>
@@ -6625,14 +6679,14 @@
         <v>36</v>
       </c>
       <c r="R43" t="s">
+        <v>233</v>
+      </c>
+      <c r="S43" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43" t="s">
         <v>243</v>
       </c>
-      <c r="S43" t="s">
-        <v>36</v>
-      </c>
-      <c r="T43" t="s">
-        <v>247</v>
-      </c>
       <c r="U43" t="s">
         <v>36</v>
       </c>
@@ -6643,7 +6697,7 @@
         <v>36</v>
       </c>
       <c r="X43" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="Y43" t="s">
         <v>36</v>
@@ -6678,7 +6732,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -6702,22 +6756,22 @@
         <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N44" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O44" t="s">
         <v>36</v>
@@ -6729,13 +6783,13 @@
         <v>36</v>
       </c>
       <c r="R44" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="S44" t="s">
         <v>36</v>
       </c>
       <c r="T44" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="U44" t="s">
         <v>36</v>
@@ -6747,7 +6801,7 @@
         <v>36</v>
       </c>
       <c r="X44" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Y44" t="s">
         <v>36</v>
@@ -6782,7 +6836,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -6806,22 +6860,22 @@
         <v>87</v>
       </c>
       <c r="I45" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J45" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M45" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O45" t="s">
         <v>36</v>
@@ -6833,13 +6887,13 @@
         <v>36</v>
       </c>
       <c r="R45" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="S45" t="s">
         <v>36</v>
       </c>
       <c r="T45" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="U45" t="s">
         <v>36</v>
@@ -6851,7 +6905,7 @@
         <v>36</v>
       </c>
       <c r="X45" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Y45" t="s">
         <v>36</v>
@@ -6886,7 +6940,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
@@ -6910,22 +6964,22 @@
         <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M46" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="N46" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="O46" t="s">
         <v>36</v>
@@ -6937,13 +6991,13 @@
         <v>36</v>
       </c>
       <c r="R46" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="S46" t="s">
         <v>36</v>
       </c>
       <c r="T46" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="U46" t="s">
         <v>36</v>
@@ -6955,7 +7009,7 @@
         <v>36</v>
       </c>
       <c r="X46" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="Y46" t="s">
         <v>36</v>
@@ -6990,7 +7044,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -7014,25 +7068,25 @@
         <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K47" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M47" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="O47" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="P47" t="s">
         <v>36</v>
@@ -7041,13 +7095,13 @@
         <v>36</v>
       </c>
       <c r="R47" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="S47" t="s">
         <v>36</v>
       </c>
       <c r="T47" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="U47" t="s">
         <v>36</v>
@@ -7059,7 +7113,7 @@
         <v>36</v>
       </c>
       <c r="X47" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="Y47" t="s">
         <v>36</v>
@@ -7094,7 +7148,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -7118,25 +7172,25 @@
         <v>87</v>
       </c>
       <c r="I48" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K48" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L48" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M48" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="N48" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="O48" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="P48" t="s">
         <v>36</v>
@@ -7145,13 +7199,13 @@
         <v>36</v>
       </c>
       <c r="R48" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="S48" t="s">
         <v>36</v>
       </c>
       <c r="T48" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="U48" t="s">
         <v>36</v>
@@ -7163,7 +7217,7 @@
         <v>36</v>
       </c>
       <c r="X48" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="Y48" t="s">
         <v>36</v>
@@ -7198,7 +7252,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -7222,22 +7276,22 @@
         <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L49" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="N49" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O49" t="s">
         <v>36</v>
@@ -7249,13 +7303,13 @@
         <v>36</v>
       </c>
       <c r="R49" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="S49" t="s">
         <v>36</v>
       </c>
       <c r="T49" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="U49" t="s">
         <v>36</v>
@@ -7267,7 +7321,7 @@
         <v>36</v>
       </c>
       <c r="X49" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="Y49" t="s">
         <v>36</v>
@@ -7302,7 +7356,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
@@ -7326,52 +7380,52 @@
         <v>87</v>
       </c>
       <c r="I50" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K50" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L50" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M50" t="s">
+        <v>264</v>
+      </c>
+      <c r="N50" t="s">
+        <v>265</v>
+      </c>
+      <c r="O50" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" t="s">
+        <v>266</v>
+      </c>
+      <c r="S50" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" t="s">
         <v>267</v>
       </c>
-      <c r="N50" t="s">
+      <c r="U50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V50" t="s">
+        <v>36</v>
+      </c>
+      <c r="W50" t="s">
+        <v>36</v>
+      </c>
+      <c r="X50" t="s">
         <v>268</v>
-      </c>
-      <c r="O50" t="s">
-        <v>36</v>
-      </c>
-      <c r="P50" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>36</v>
-      </c>
-      <c r="R50" t="s">
-        <v>273</v>
-      </c>
-      <c r="S50" t="s">
-        <v>36</v>
-      </c>
-      <c r="T50" t="s">
-        <v>274</v>
-      </c>
-      <c r="U50" t="s">
-        <v>36</v>
-      </c>
-      <c r="V50" t="s">
-        <v>36</v>
-      </c>
-      <c r="W50" t="s">
-        <v>36</v>
-      </c>
-      <c r="X50" t="s">
-        <v>275</v>
       </c>
       <c r="Y50" t="s">
         <v>36</v>
@@ -7406,7 +7460,7 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -7430,22 +7484,22 @@
         <v>87</v>
       </c>
       <c r="I51" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M51" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N51" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O51" t="s">
         <v>36</v>
@@ -7457,13 +7511,13 @@
         <v>36</v>
       </c>
       <c r="R51" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S51" t="s">
         <v>36</v>
       </c>
       <c r="T51" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="U51" t="s">
         <v>36</v>
@@ -7475,7 +7529,7 @@
         <v>36</v>
       </c>
       <c r="X51" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Y51" t="s">
         <v>36</v>
@@ -7510,7 +7564,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
@@ -7534,22 +7588,22 @@
         <v>87</v>
       </c>
       <c r="I52" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K52" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L52" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M52" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N52" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O52" t="s">
         <v>36</v>
@@ -7561,13 +7615,13 @@
         <v>36</v>
       </c>
       <c r="R52" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S52" t="s">
         <v>36</v>
       </c>
       <c r="T52" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="U52" t="s">
         <v>36</v>
@@ -7579,7 +7633,7 @@
         <v>36</v>
       </c>
       <c r="X52" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Y52" t="s">
         <v>36</v>
@@ -7614,7 +7668,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -7638,22 +7692,22 @@
         <v>87</v>
       </c>
       <c r="I53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M53" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N53" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O53" t="s">
         <v>36</v>
@@ -7665,13 +7719,13 @@
         <v>36</v>
       </c>
       <c r="R53" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S53" t="s">
         <v>36</v>
       </c>
       <c r="T53" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="U53" t="s">
         <v>36</v>
@@ -7683,7 +7737,7 @@
         <v>36</v>
       </c>
       <c r="X53" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y53" t="s">
         <v>36</v>
@@ -7718,7 +7772,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -7742,22 +7796,22 @@
         <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J54" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K54" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L54" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M54" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N54" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="O54" t="s">
         <v>36</v>
@@ -7769,13 +7823,13 @@
         <v>36</v>
       </c>
       <c r="R54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S54" t="s">
         <v>36</v>
       </c>
       <c r="T54" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U54" t="s">
         <v>36</v>
@@ -7787,7 +7841,7 @@
         <v>36</v>
       </c>
       <c r="X54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y54" t="s">
         <v>36</v>
@@ -7822,7 +7876,7 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
@@ -7846,25 +7900,25 @@
         <v>87</v>
       </c>
       <c r="I55" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J55" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M55" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="N55" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="O55" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="P55" t="s">
         <v>36</v>
@@ -7873,13 +7927,13 @@
         <v>36</v>
       </c>
       <c r="R55" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="S55" t="s">
         <v>36</v>
       </c>
       <c r="T55" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="U55" t="s">
         <v>36</v>
@@ -7891,7 +7945,7 @@
         <v>36</v>
       </c>
       <c r="X55" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Y55" t="s">
         <v>36</v>
@@ -7926,7 +7980,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -7950,25 +8004,25 @@
         <v>87</v>
       </c>
       <c r="I56" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L56" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M56" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="N56" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="O56" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="P56" t="s">
         <v>36</v>
@@ -7977,13 +8031,13 @@
         <v>36</v>
       </c>
       <c r="R56" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="S56" t="s">
         <v>36</v>
       </c>
       <c r="T56" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="U56" t="s">
         <v>36</v>
@@ -7995,7 +8049,7 @@
         <v>36</v>
       </c>
       <c r="X56" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="Y56" t="s">
         <v>36</v>
@@ -8054,25 +8108,25 @@
         <v>87</v>
       </c>
       <c r="I57" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K57" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L57" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M57" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="N57" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="O57" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="P57" t="s">
         <v>36</v>
@@ -8081,13 +8135,13 @@
         <v>36</v>
       </c>
       <c r="R57" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="S57" t="s">
         <v>36</v>
       </c>
       <c r="T57" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="U57" t="s">
         <v>36</v>
@@ -8099,7 +8153,7 @@
         <v>36</v>
       </c>
       <c r="X57" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Y57" t="s">
         <v>36</v>
@@ -8134,7 +8188,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
@@ -8158,25 +8212,25 @@
         <v>87</v>
       </c>
       <c r="I58" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J58" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M58" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="N58" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="O58" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="P58" t="s">
         <v>36</v>
@@ -8185,13 +8239,13 @@
         <v>36</v>
       </c>
       <c r="R58" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="S58" t="s">
         <v>36</v>
       </c>
       <c r="T58" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="U58" t="s">
         <v>36</v>
@@ -8203,7 +8257,7 @@
         <v>36</v>
       </c>
       <c r="X58" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y58" t="s">
         <v>36</v>
@@ -8238,7 +8292,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
@@ -8262,25 +8316,25 @@
         <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M59" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="N59" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="O59" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="P59" t="s">
         <v>36</v>
@@ -8289,13 +8343,13 @@
         <v>36</v>
       </c>
       <c r="R59" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="S59" t="s">
         <v>36</v>
       </c>
       <c r="T59" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="U59" t="s">
         <v>36</v>
@@ -8307,7 +8361,7 @@
         <v>36</v>
       </c>
       <c r="X59" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Y59" t="s">
         <v>36</v>
@@ -8342,7 +8396,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
@@ -8366,25 +8420,25 @@
         <v>87</v>
       </c>
       <c r="I60" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K60" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L60" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M60" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="N60" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="O60" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -8393,13 +8447,13 @@
         <v>36</v>
       </c>
       <c r="R60" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="S60" t="s">
         <v>36</v>
       </c>
       <c r="T60" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="U60" t="s">
         <v>36</v>
@@ -8411,7 +8465,7 @@
         <v>36</v>
       </c>
       <c r="X60" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="Y60" t="s">
         <v>36</v>
@@ -8446,7 +8500,7 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
@@ -8470,25 +8524,25 @@
         <v>87</v>
       </c>
       <c r="I61" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K61" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L61" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M61" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="N61" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="O61" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="P61" t="s">
         <v>36</v>
@@ -8497,13 +8551,13 @@
         <v>36</v>
       </c>
       <c r="R61" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="S61" t="s">
         <v>36</v>
       </c>
       <c r="T61" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="U61" t="s">
         <v>36</v>
@@ -8515,7 +8569,7 @@
         <v>36</v>
       </c>
       <c r="X61" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Y61" t="s">
         <v>36</v>
@@ -8550,7 +8604,7 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
@@ -8574,25 +8628,25 @@
         <v>87</v>
       </c>
       <c r="I62" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J62" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K62" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M62" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="N62" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O62" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="P62" t="s">
         <v>36</v>
@@ -8601,13 +8655,13 @@
         <v>36</v>
       </c>
       <c r="R62" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="S62" t="s">
         <v>36</v>
       </c>
       <c r="T62" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="U62" t="s">
         <v>36</v>
@@ -8619,7 +8673,7 @@
         <v>36</v>
       </c>
       <c r="X62" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Y62" t="s">
         <v>36</v>
@@ -8654,7 +8708,7 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B63" t="s">
         <v>35</v>
@@ -8678,25 +8732,25 @@
         <v>87</v>
       </c>
       <c r="I63" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J63" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K63" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L63" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M63" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="N63" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="O63" t="s">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="P63" t="s">
         <v>36</v>
@@ -8705,13 +8759,13 @@
         <v>36</v>
       </c>
       <c r="R63" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="S63" t="s">
         <v>36</v>
       </c>
       <c r="T63" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="U63" t="s">
         <v>36</v>
@@ -8723,7 +8777,7 @@
         <v>36</v>
       </c>
       <c r="X63" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="Y63" t="s">
         <v>36</v>
@@ -8758,7 +8812,7 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
@@ -8782,22 +8836,22 @@
         <v>87</v>
       </c>
       <c r="I64" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K64" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L64" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M64" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="N64" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="O64" t="s">
         <v>36</v>
@@ -8809,13 +8863,13 @@
         <v>36</v>
       </c>
       <c r="R64" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="S64" t="s">
         <v>36</v>
       </c>
       <c r="T64" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="U64" t="s">
         <v>36</v>
@@ -8827,7 +8881,7 @@
         <v>36</v>
       </c>
       <c r="X64" t="s">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="Y64" t="s">
         <v>36</v>
@@ -8862,7 +8916,7 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
@@ -8886,22 +8940,22 @@
         <v>87</v>
       </c>
       <c r="I65" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L65" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M65" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="N65" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="O65" t="s">
         <v>36</v>
@@ -8913,13 +8967,13 @@
         <v>36</v>
       </c>
       <c r="R65" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="S65" t="s">
         <v>36</v>
       </c>
       <c r="T65" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="U65" t="s">
         <v>36</v>
@@ -8931,7 +8985,7 @@
         <v>36</v>
       </c>
       <c r="X65" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="Y65" t="s">
         <v>36</v>
@@ -8961,12 +9015,12 @@
         <v>36</v>
       </c>
       <c r="AH65" t="s">
-        <v>318</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -8990,22 +9044,22 @@
         <v>87</v>
       </c>
       <c r="I66" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J66" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L66" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M66" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="N66" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="O66" t="s">
         <v>36</v>
@@ -9017,13 +9071,13 @@
         <v>36</v>
       </c>
       <c r="R66" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="S66" t="s">
         <v>36</v>
       </c>
       <c r="T66" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="U66" t="s">
         <v>36</v>
@@ -9035,7 +9089,7 @@
         <v>36</v>
       </c>
       <c r="X66" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="Y66" t="s">
         <v>36</v>
@@ -9070,7 +9124,7 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s">
         <v>35</v>
@@ -9094,22 +9148,22 @@
         <v>87</v>
       </c>
       <c r="I67" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J67" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K67" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L67" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M67" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="N67" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="O67" t="s">
         <v>36</v>
@@ -9121,13 +9175,13 @@
         <v>36</v>
       </c>
       <c r="R67" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="S67" t="s">
         <v>36</v>
       </c>
       <c r="T67" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="U67" t="s">
         <v>36</v>
@@ -9139,7 +9193,7 @@
         <v>36</v>
       </c>
       <c r="X67" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="Y67" t="s">
         <v>36</v>
@@ -9174,7 +9228,7 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
@@ -9198,22 +9252,22 @@
         <v>87</v>
       </c>
       <c r="I68" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J68" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K68" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L68" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O68" t="s">
         <v>36</v>
@@ -9225,13 +9279,13 @@
         <v>36</v>
       </c>
       <c r="R68" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="S68" t="s">
         <v>36</v>
       </c>
       <c r="T68" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="U68" t="s">
         <v>36</v>
@@ -9243,7 +9297,7 @@
         <v>36</v>
       </c>
       <c r="X68" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="Y68" t="s">
         <v>36</v>
@@ -9278,7 +9332,7 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s">
         <v>35</v>
@@ -9302,40 +9356,40 @@
         <v>87</v>
       </c>
       <c r="I69" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J69" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K69" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M69" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N69" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O69" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>36</v>
+      </c>
+      <c r="R69" t="s">
         <v>333</v>
       </c>
-      <c r="P69" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>36</v>
-      </c>
-      <c r="R69" t="s">
-        <v>334</v>
-      </c>
       <c r="S69" t="s">
         <v>36</v>
       </c>
       <c r="T69" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="U69" t="s">
         <v>36</v>
@@ -9347,7 +9401,7 @@
         <v>36</v>
       </c>
       <c r="X69" t="s">
-        <v>206</v>
+        <v>337</v>
       </c>
       <c r="Y69" t="s">
         <v>36</v>
@@ -9382,7 +9436,7 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s">
         <v>35</v>
@@ -9406,22 +9460,22 @@
         <v>87</v>
       </c>
       <c r="I70" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J70" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M70" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
       <c r="N70" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="O70" t="s">
         <v>36</v>
@@ -9433,13 +9487,13 @@
         <v>36</v>
       </c>
       <c r="R70" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="S70" t="s">
         <v>36</v>
       </c>
       <c r="T70" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="U70" t="s">
         <v>36</v>
@@ -9451,7 +9505,7 @@
         <v>36</v>
       </c>
       <c r="X70" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Y70" t="s">
         <v>36</v>
@@ -9486,7 +9540,7 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s">
         <v>35</v>
@@ -9510,40 +9564,40 @@
         <v>87</v>
       </c>
       <c r="I71" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J71" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K71" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L71" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M71" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="N71" t="s">
+        <v>328</v>
+      </c>
+      <c r="O71" t="s">
+        <v>36</v>
+      </c>
+      <c r="P71" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>36</v>
+      </c>
+      <c r="R71" t="s">
         <v>343</v>
       </c>
-      <c r="O71" t="s">
-        <v>36</v>
-      </c>
-      <c r="P71" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>36</v>
-      </c>
-      <c r="R71" t="s">
-        <v>344</v>
-      </c>
       <c r="S71" t="s">
         <v>36</v>
       </c>
       <c r="T71" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="U71" t="s">
         <v>36</v>
@@ -9555,7 +9609,7 @@
         <v>36</v>
       </c>
       <c r="X71" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Y71" t="s">
         <v>36</v>
@@ -9590,7 +9644,7 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -9614,40 +9668,40 @@
         <v>87</v>
       </c>
       <c r="I72" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J72" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K72" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L72" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M72" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="N72" t="s">
+        <v>328</v>
+      </c>
+      <c r="O72" t="s">
+        <v>36</v>
+      </c>
+      <c r="P72" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>36</v>
+      </c>
+      <c r="R72" t="s">
         <v>343</v>
       </c>
-      <c r="O72" t="s">
-        <v>36</v>
-      </c>
-      <c r="P72" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>36</v>
-      </c>
-      <c r="R72" t="s">
-        <v>348</v>
-      </c>
       <c r="S72" t="s">
         <v>36</v>
       </c>
       <c r="T72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U72" t="s">
         <v>36</v>
@@ -9659,7 +9713,7 @@
         <v>36</v>
       </c>
       <c r="X72" t="s">
-        <v>180</v>
+        <v>345</v>
       </c>
       <c r="Y72" t="s">
         <v>36</v>
@@ -9694,7 +9748,7 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s">
         <v>35</v>
@@ -9718,22 +9772,22 @@
         <v>87</v>
       </c>
       <c r="I73" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J73" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K73" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L73" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M73" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="N73" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="O73" t="s">
         <v>36</v>
@@ -9745,13 +9799,13 @@
         <v>36</v>
       </c>
       <c r="R73" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="S73" t="s">
         <v>36</v>
       </c>
       <c r="T73" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="U73" t="s">
         <v>36</v>
@@ -9763,7 +9817,7 @@
         <v>36</v>
       </c>
       <c r="X73" t="s">
-        <v>352</v>
+        <v>246</v>
       </c>
       <c r="Y73" t="s">
         <v>36</v>
@@ -9798,7 +9852,7 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B74" t="s">
         <v>35</v>
@@ -9822,22 +9876,22 @@
         <v>87</v>
       </c>
       <c r="I74" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J74" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K74" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L74" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M74" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="N74" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="O74" t="s">
         <v>36</v>
@@ -9849,13 +9903,13 @@
         <v>36</v>
       </c>
       <c r="R74" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="S74" t="s">
         <v>36</v>
       </c>
       <c r="T74" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="U74" t="s">
         <v>36</v>
@@ -9867,7 +9921,7 @@
         <v>36</v>
       </c>
       <c r="X74" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="Y74" t="s">
         <v>36</v>
@@ -9902,7 +9956,7 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
@@ -9926,22 +9980,22 @@
         <v>87</v>
       </c>
       <c r="I75" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J75" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K75" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L75" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M75" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="N75" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="O75" t="s">
         <v>36</v>
@@ -9953,13 +10007,13 @@
         <v>36</v>
       </c>
       <c r="R75" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="S75" t="s">
         <v>36</v>
       </c>
       <c r="T75" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="U75" t="s">
         <v>36</v>
@@ -9971,7 +10025,7 @@
         <v>36</v>
       </c>
       <c r="X75" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="Y75" t="s">
         <v>36</v>
@@ -10006,7 +10060,7 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -10030,22 +10084,22 @@
         <v>87</v>
       </c>
       <c r="I76" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J76" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K76" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L76" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M76" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="N76" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="O76" t="s">
         <v>36</v>
@@ -10057,13 +10111,13 @@
         <v>36</v>
       </c>
       <c r="R76" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="S76" t="s">
         <v>36</v>
       </c>
       <c r="T76" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="U76" t="s">
         <v>36</v>
@@ -10075,7 +10129,7 @@
         <v>36</v>
       </c>
       <c r="X76" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Y76" t="s">
         <v>36</v>
@@ -10110,7 +10164,7 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s">
         <v>35</v>
@@ -10134,22 +10188,22 @@
         <v>87</v>
       </c>
       <c r="I77" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J77" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K77" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L77" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M77" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="N77" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="O77" t="s">
         <v>36</v>
@@ -10161,13 +10215,13 @@
         <v>36</v>
       </c>
       <c r="R77" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="S77" t="s">
         <v>36</v>
       </c>
       <c r="T77" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="U77" t="s">
         <v>36</v>
@@ -10179,7 +10233,7 @@
         <v>36</v>
       </c>
       <c r="X77" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Y77" t="s">
         <v>36</v>
@@ -10214,7 +10268,7 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
@@ -10238,22 +10292,22 @@
         <v>87</v>
       </c>
       <c r="I78" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K78" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L78" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M78" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="N78" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="O78" t="s">
         <v>36</v>
@@ -10265,13 +10319,13 @@
         <v>36</v>
       </c>
       <c r="R78" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="S78" t="s">
         <v>36</v>
       </c>
       <c r="T78" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="U78" t="s">
         <v>36</v>
@@ -10283,7 +10337,7 @@
         <v>36</v>
       </c>
       <c r="X78" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="Y78" t="s">
         <v>36</v>
@@ -10318,7 +10372,7 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B79" t="s">
         <v>35</v>
@@ -10342,22 +10396,22 @@
         <v>87</v>
       </c>
       <c r="I79" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K79" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L79" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M79" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="N79" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="O79" t="s">
         <v>36</v>
@@ -10369,13 +10423,13 @@
         <v>36</v>
       </c>
       <c r="R79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S79" t="s">
         <v>36</v>
       </c>
       <c r="T79" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="U79" t="s">
         <v>36</v>
@@ -10387,7 +10441,7 @@
         <v>36</v>
       </c>
       <c r="X79" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="Y79" t="s">
         <v>36</v>
@@ -10417,12 +10471,12 @@
         <v>36</v>
       </c>
       <c r="AH79" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B80" t="s">
         <v>35</v>
@@ -10446,25 +10500,25 @@
         <v>87</v>
       </c>
       <c r="I80" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K80" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L80" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M80" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N80" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O80" t="s">
-        <v>372</v>
+        <v>36</v>
       </c>
       <c r="P80" t="s">
         <v>36</v>
@@ -10473,13 +10527,13 @@
         <v>36</v>
       </c>
       <c r="R80" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="S80" t="s">
         <v>36</v>
       </c>
       <c r="T80" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="U80" t="s">
         <v>36</v>
@@ -10491,7 +10545,7 @@
         <v>36</v>
       </c>
       <c r="X80" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="Y80" t="s">
         <v>36</v>
@@ -10526,7 +10580,7 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -10550,25 +10604,25 @@
         <v>87</v>
       </c>
       <c r="I81" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J81" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K81" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L81" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="M81" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N81" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O81" t="s">
-        <v>372</v>
+        <v>36</v>
       </c>
       <c r="P81" t="s">
         <v>36</v>
@@ -10577,13 +10631,13 @@
         <v>36</v>
       </c>
       <c r="R81" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="S81" t="s">
         <v>36</v>
       </c>
       <c r="T81" t="s">
-        <v>179</v>
+        <v>383</v>
       </c>
       <c r="U81" t="s">
         <v>36</v>
@@ -10595,7 +10649,7 @@
         <v>36</v>
       </c>
       <c r="X81" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="Y81" t="s">
         <v>36</v>
@@ -10630,7 +10684,7 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -10654,10 +10708,10 @@
         <v>87</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J82" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="K82" t="s">
         <v>36</v>
@@ -10669,7 +10723,7 @@
         <v>36</v>
       </c>
       <c r="N82" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="O82" t="s">
         <v>36</v>
@@ -10681,13 +10735,13 @@
         <v>36</v>
       </c>
       <c r="R82" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="S82" t="s">
         <v>36</v>
       </c>
       <c r="T82" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="U82" t="s">
         <v>36</v>
@@ -10729,12 +10783,12 @@
         <v>36</v>
       </c>
       <c r="AH82" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B83" t="s">
         <v>35</v>
@@ -10761,22 +10815,22 @@
         <v>88</v>
       </c>
       <c r="J83" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K83" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="L83" t="s">
-        <v>36</v>
+        <v>394</v>
       </c>
       <c r="M83" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="N83" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="O83" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P83" t="s">
         <v>36</v>
@@ -10785,13 +10839,13 @@
         <v>36</v>
       </c>
       <c r="R83" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="S83" t="s">
         <v>36</v>
       </c>
       <c r="T83" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="U83" t="s">
         <v>36</v>
@@ -10803,7 +10857,7 @@
         <v>36</v>
       </c>
       <c r="X83" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="Y83" t="s">
         <v>36</v>
@@ -10838,7 +10892,7 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B84" t="s">
         <v>35</v>
@@ -10865,19 +10919,19 @@
         <v>88</v>
       </c>
       <c r="J84" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K84" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="L84" t="s">
         <v>36</v>
       </c>
       <c r="M84" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="N84" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="O84" t="s">
         <v>36</v>
@@ -10889,13 +10943,13 @@
         <v>36</v>
       </c>
       <c r="R84" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="S84" t="s">
         <v>36</v>
       </c>
       <c r="T84" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="U84" t="s">
         <v>36</v>
@@ -10907,7 +10961,7 @@
         <v>36</v>
       </c>
       <c r="X84" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Y84" t="s">
         <v>36</v>
@@ -10942,7 +10996,7 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B85" t="s">
         <v>35</v>
@@ -10969,10 +11023,10 @@
         <v>88</v>
       </c>
       <c r="J85" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K85" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L85" t="s">
         <v>36</v>
@@ -10981,7 +11035,7 @@
         <v>36</v>
       </c>
       <c r="N85" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="O85" t="s">
         <v>36</v>
@@ -10993,13 +11047,13 @@
         <v>36</v>
       </c>
       <c r="R85" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="S85" t="s">
         <v>36</v>
       </c>
       <c r="T85" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="U85" t="s">
         <v>36</v>
@@ -11011,7 +11065,7 @@
         <v>36</v>
       </c>
       <c r="X85" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Y85" t="s">
         <v>36</v>
@@ -11046,7 +11100,7 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
@@ -11073,10 +11127,10 @@
         <v>88</v>
       </c>
       <c r="J86" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K86" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L86" t="s">
         <v>36</v>
@@ -11085,7 +11139,7 @@
         <v>36</v>
       </c>
       <c r="N86" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="O86" t="s">
         <v>36</v>
@@ -11097,13 +11151,13 @@
         <v>36</v>
       </c>
       <c r="R86" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="S86" t="s">
         <v>36</v>
       </c>
       <c r="T86" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="U86" t="s">
         <v>36</v>
@@ -11115,7 +11169,7 @@
         <v>36</v>
       </c>
       <c r="X86" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="Y86" t="s">
         <v>36</v>
@@ -11156,494 +11210,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F1" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="I1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="J1" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K1" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="N1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="O1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P1" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="R1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="T1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="U1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="V1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="W1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="X1" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="Y1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Z1" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AA1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="AB1" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="AC1" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="AD1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AE1" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="AF1" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AG1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AH1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AI1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AJ1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AK1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AL1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AM1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AN1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AO1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AP1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AQ1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AR1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AS1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="AT1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AU1" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AV1" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="AW1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AX1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AY1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AZ1" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="BA1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="BB1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="BC1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="BD1" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="BE1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="BF1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="BG1" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="BH1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="BI1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="BJ1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="BK1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="BL1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="BM1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="BN1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="BO1" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="BP1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="BQ1" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="BR1" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="BS1" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="BT1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="BU1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="BV1" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="BW1" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="BX1" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="BY1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="BZ1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="CA1" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="CB1" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="CC1" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="CD1" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="CE1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="CF1" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="CG1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="CH1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="CI1" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="CJ1" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="CK1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="CL1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="CM1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="CN1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="CO1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="CP1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="CQ1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="CR1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="CS1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="CT1" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="CU1" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="CV1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="CW1" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="CX1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="CY1" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="CZ1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="DA1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="DB1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="DC1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="DD1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="DE1" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="DF1" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="DG1" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="DH1" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="DI1" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="DJ1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="DK1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="DL1" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="DM1" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="DN1" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="DO1" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="DP1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="DQ1" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="DR1" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="DS1" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="DT1" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="DU1" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="DV1" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="DW1" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="DX1" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="DY1" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="DZ1" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="EA1" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="EB1" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="EC1" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="ED1" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="EE1" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="EF1" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="EG1" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="EH1" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="EI1" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="EJ1" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="EK1" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="EL1" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="EM1" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="EN1" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="EO1" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="EP1" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="EQ1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="ER1" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="ES1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="ET1" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="EU1" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="EV1" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="EW1" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="EX1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="EY1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="EZ1" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="FA1" t="s">
-        <v>561</v>
+        <v>571</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>572</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>573</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="D2" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -11655,16 +11718,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="K2" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -11679,7 +11742,7 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="Q2" t="s">
         <v>36</v>
@@ -11691,13 +11754,13 @@
         <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="U2" t="s">
         <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="W2" t="s">
         <v>36</v>
@@ -11706,7 +11769,7 @@
         <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="Z2" t="s">
         <v>36</v>
@@ -11730,7 +11793,7 @@
         <v>36</v>
       </c>
       <c r="AG2" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="AH2" t="s">
         <v>36</v>
@@ -11751,357 +11814,366 @@
         <v>36</v>
       </c>
       <c r="AN2" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="AO2" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="AP2" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="AQ2" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="AR2" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="AS2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>596</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>597</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>598</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>599</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>600</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>601</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>603</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>604</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>605</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>578</v>
       </c>
-      <c r="AT2" t="s">
-        <v>579</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>580</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>581</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>582</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>606</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>607</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>608</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>609</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>610</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>611</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>612</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>613</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>614</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>615</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>583</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>584</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>585</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>586</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>587</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>588</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>565</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>589</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>590</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>592</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>593</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>594</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>595</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>596</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>597</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>570</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>598</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>599</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>616</v>
       </c>
       <c r="EW2" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>618</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>619</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12121,10 +12193,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="C1" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Arthropoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Arthropoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="624">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1027,6 +1027,12 @@
   </si>
   <si>
     <t>(Rathbun, 1902)</t>
+  </si>
+  <si>
+    <t>67627</t>
+  </si>
+  <si>
+    <t>(J.F. Brandt in von Middendorf, 1851)</t>
   </si>
   <si>
     <t>458674</t>
@@ -2255,7 +2261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -9285,19 +9291,19 @@
         <v>36</v>
       </c>
       <c r="T68" t="s">
+        <v>203</v>
+      </c>
+      <c r="U68" t="s">
+        <v>36</v>
+      </c>
+      <c r="V68" t="s">
+        <v>36</v>
+      </c>
+      <c r="W68" t="s">
+        <v>36</v>
+      </c>
+      <c r="X68" t="s">
         <v>339</v>
-      </c>
-      <c r="U68" t="s">
-        <v>36</v>
-      </c>
-      <c r="V68" t="s">
-        <v>36</v>
-      </c>
-      <c r="W68" t="s">
-        <v>36</v>
-      </c>
-      <c r="X68" t="s">
-        <v>246</v>
       </c>
       <c r="Y68" t="s">
         <v>36</v>
@@ -9401,7 +9407,7 @@
         <v>36</v>
       </c>
       <c r="X69" t="s">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="Y69" t="s">
         <v>36</v>
@@ -9487,14 +9493,14 @@
         <v>36</v>
       </c>
       <c r="R70" t="s">
+        <v>333</v>
+      </c>
+      <c r="S70" t="s">
+        <v>36</v>
+      </c>
+      <c r="T70" t="s">
         <v>343</v>
       </c>
-      <c r="S70" t="s">
-        <v>36</v>
-      </c>
-      <c r="T70" t="s">
-        <v>344</v>
-      </c>
       <c r="U70" t="s">
         <v>36</v>
       </c>
@@ -9505,7 +9511,7 @@
         <v>36</v>
       </c>
       <c r="X70" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Y70" t="s">
         <v>36</v>
@@ -9540,7 +9546,7 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B71" t="s">
         <v>35</v>
@@ -9591,25 +9597,25 @@
         <v>36</v>
       </c>
       <c r="R71" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S71" t="s">
         <v>36</v>
       </c>
       <c r="T71" t="s">
+        <v>346</v>
+      </c>
+      <c r="U71" t="s">
+        <v>36</v>
+      </c>
+      <c r="V71" t="s">
+        <v>36</v>
+      </c>
+      <c r="W71" t="s">
+        <v>36</v>
+      </c>
+      <c r="X71" t="s">
         <v>347</v>
-      </c>
-      <c r="U71" t="s">
-        <v>36</v>
-      </c>
-      <c r="V71" t="s">
-        <v>36</v>
-      </c>
-      <c r="W71" t="s">
-        <v>36</v>
-      </c>
-      <c r="X71" t="s">
-        <v>348</v>
       </c>
       <c r="Y71" t="s">
         <v>36</v>
@@ -9644,7 +9650,7 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -9695,25 +9701,25 @@
         <v>36</v>
       </c>
       <c r="R72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s">
         <v>36</v>
       </c>
       <c r="T72" t="s">
+        <v>349</v>
+      </c>
+      <c r="U72" t="s">
+        <v>36</v>
+      </c>
+      <c r="V72" t="s">
+        <v>36</v>
+      </c>
+      <c r="W72" t="s">
+        <v>36</v>
+      </c>
+      <c r="X72" t="s">
         <v>350</v>
-      </c>
-      <c r="U72" t="s">
-        <v>36</v>
-      </c>
-      <c r="V72" t="s">
-        <v>36</v>
-      </c>
-      <c r="W72" t="s">
-        <v>36</v>
-      </c>
-      <c r="X72" t="s">
-        <v>345</v>
       </c>
       <c r="Y72" t="s">
         <v>36</v>
@@ -9799,14 +9805,14 @@
         <v>36</v>
       </c>
       <c r="R73" t="s">
+        <v>345</v>
+      </c>
+      <c r="S73" t="s">
+        <v>36</v>
+      </c>
+      <c r="T73" t="s">
         <v>352</v>
       </c>
-      <c r="S73" t="s">
-        <v>36</v>
-      </c>
-      <c r="T73" t="s">
-        <v>353</v>
-      </c>
       <c r="U73" t="s">
         <v>36</v>
       </c>
@@ -9817,7 +9823,7 @@
         <v>36</v>
       </c>
       <c r="X73" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
       <c r="Y73" t="s">
         <v>36</v>
@@ -9852,7 +9858,7 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
         <v>35</v>
@@ -9888,29 +9894,29 @@
         <v>326</v>
       </c>
       <c r="M74" t="s">
+        <v>327</v>
+      </c>
+      <c r="N74" t="s">
+        <v>328</v>
+      </c>
+      <c r="O74" t="s">
+        <v>36</v>
+      </c>
+      <c r="P74" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>36</v>
+      </c>
+      <c r="R74" t="s">
+        <v>354</v>
+      </c>
+      <c r="S74" t="s">
+        <v>36</v>
+      </c>
+      <c r="T74" t="s">
         <v>355</v>
       </c>
-      <c r="N74" t="s">
-        <v>356</v>
-      </c>
-      <c r="O74" t="s">
-        <v>36</v>
-      </c>
-      <c r="P74" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>36</v>
-      </c>
-      <c r="R74" t="s">
-        <v>357</v>
-      </c>
-      <c r="S74" t="s">
-        <v>36</v>
-      </c>
-      <c r="T74" t="s">
-        <v>358</v>
-      </c>
       <c r="U74" t="s">
         <v>36</v>
       </c>
@@ -9921,7 +9927,7 @@
         <v>36</v>
       </c>
       <c r="X74" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="Y74" t="s">
         <v>36</v>
@@ -9956,7 +9962,7 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
@@ -9992,10 +9998,10 @@
         <v>326</v>
       </c>
       <c r="M75" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N75" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O75" t="s">
         <v>36</v>
@@ -10007,25 +10013,25 @@
         <v>36</v>
       </c>
       <c r="R75" t="s">
+        <v>359</v>
+      </c>
+      <c r="S75" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" t="s">
+        <v>360</v>
+      </c>
+      <c r="U75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W75" t="s">
+        <v>36</v>
+      </c>
+      <c r="X75" t="s">
         <v>361</v>
-      </c>
-      <c r="S75" t="s">
-        <v>36</v>
-      </c>
-      <c r="T75" t="s">
-        <v>362</v>
-      </c>
-      <c r="U75" t="s">
-        <v>36</v>
-      </c>
-      <c r="V75" t="s">
-        <v>36</v>
-      </c>
-      <c r="W75" t="s">
-        <v>36</v>
-      </c>
-      <c r="X75" t="s">
-        <v>272</v>
       </c>
       <c r="Y75" t="s">
         <v>36</v>
@@ -10060,7 +10066,7 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -10096,29 +10102,29 @@
         <v>326</v>
       </c>
       <c r="M76" t="s">
+        <v>357</v>
+      </c>
+      <c r="N76" t="s">
+        <v>358</v>
+      </c>
+      <c r="O76" t="s">
+        <v>36</v>
+      </c>
+      <c r="P76" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>36</v>
+      </c>
+      <c r="R76" t="s">
+        <v>363</v>
+      </c>
+      <c r="S76" t="s">
+        <v>36</v>
+      </c>
+      <c r="T76" t="s">
         <v>364</v>
       </c>
-      <c r="N76" t="s">
-        <v>365</v>
-      </c>
-      <c r="O76" t="s">
-        <v>36</v>
-      </c>
-      <c r="P76" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>36</v>
-      </c>
-      <c r="R76" t="s">
-        <v>366</v>
-      </c>
-      <c r="S76" t="s">
-        <v>36</v>
-      </c>
-      <c r="T76" t="s">
-        <v>367</v>
-      </c>
       <c r="U76" t="s">
         <v>36</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>36</v>
       </c>
       <c r="X76" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="Y76" t="s">
         <v>36</v>
@@ -10164,7 +10170,7 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B77" t="s">
         <v>35</v>
@@ -10200,10 +10206,10 @@
         <v>326</v>
       </c>
       <c r="M77" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N77" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O77" t="s">
         <v>36</v>
@@ -10215,25 +10221,25 @@
         <v>36</v>
       </c>
       <c r="R77" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="S77" t="s">
         <v>36</v>
       </c>
       <c r="T77" t="s">
+        <v>369</v>
+      </c>
+      <c r="U77" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77" t="s">
+        <v>36</v>
+      </c>
+      <c r="W77" t="s">
+        <v>36</v>
+      </c>
+      <c r="X77" t="s">
         <v>370</v>
-      </c>
-      <c r="U77" t="s">
-        <v>36</v>
-      </c>
-      <c r="V77" t="s">
-        <v>36</v>
-      </c>
-      <c r="W77" t="s">
-        <v>36</v>
-      </c>
-      <c r="X77" t="s">
-        <v>371</v>
       </c>
       <c r="Y77" t="s">
         <v>36</v>
@@ -10268,7 +10274,7 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
@@ -10304,10 +10310,10 @@
         <v>326</v>
       </c>
       <c r="M78" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N78" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O78" t="s">
         <v>36</v>
@@ -10319,25 +10325,25 @@
         <v>36</v>
       </c>
       <c r="R78" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="S78" t="s">
         <v>36</v>
       </c>
       <c r="T78" t="s">
+        <v>372</v>
+      </c>
+      <c r="U78" t="s">
+        <v>36</v>
+      </c>
+      <c r="V78" t="s">
+        <v>36</v>
+      </c>
+      <c r="W78" t="s">
+        <v>36</v>
+      </c>
+      <c r="X78" t="s">
         <v>373</v>
-      </c>
-      <c r="U78" t="s">
-        <v>36</v>
-      </c>
-      <c r="V78" t="s">
-        <v>36</v>
-      </c>
-      <c r="W78" t="s">
-        <v>36</v>
-      </c>
-      <c r="X78" t="s">
-        <v>374</v>
       </c>
       <c r="Y78" t="s">
         <v>36</v>
@@ -10372,7 +10378,7 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B79" t="s">
         <v>35</v>
@@ -10408,10 +10414,10 @@
         <v>326</v>
       </c>
       <c r="M79" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N79" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O79" t="s">
         <v>36</v>
@@ -10423,26 +10429,26 @@
         <v>36</v>
       </c>
       <c r="R79" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="S79" t="s">
         <v>36</v>
       </c>
       <c r="T79" t="s">
+        <v>375</v>
+      </c>
+      <c r="U79" t="s">
+        <v>36</v>
+      </c>
+      <c r="V79" t="s">
+        <v>36</v>
+      </c>
+      <c r="W79" t="s">
+        <v>36</v>
+      </c>
+      <c r="X79" t="s">
         <v>376</v>
       </c>
-      <c r="U79" t="s">
-        <v>36</v>
-      </c>
-      <c r="V79" t="s">
-        <v>36</v>
-      </c>
-      <c r="W79" t="s">
-        <v>36</v>
-      </c>
-      <c r="X79" t="s">
-        <v>377</v>
-      </c>
       <c r="Y79" t="s">
         <v>36</v>
       </c>
@@ -10471,12 +10477,12 @@
         <v>36</v>
       </c>
       <c r="AH79" t="s">
-        <v>378</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B80" t="s">
         <v>35</v>
@@ -10512,10 +10518,10 @@
         <v>326</v>
       </c>
       <c r="M80" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N80" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O80" t="s">
         <v>36</v>
@@ -10527,60 +10533,60 @@
         <v>36</v>
       </c>
       <c r="R80" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="S80" t="s">
         <v>36</v>
       </c>
       <c r="T80" t="s">
+        <v>378</v>
+      </c>
+      <c r="U80" t="s">
+        <v>36</v>
+      </c>
+      <c r="V80" t="s">
+        <v>36</v>
+      </c>
+      <c r="W80" t="s">
+        <v>36</v>
+      </c>
+      <c r="X80" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH80" t="s">
         <v>380</v>
-      </c>
-      <c r="U80" t="s">
-        <v>36</v>
-      </c>
-      <c r="V80" t="s">
-        <v>36</v>
-      </c>
-      <c r="W80" t="s">
-        <v>36</v>
-      </c>
-      <c r="X80" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH80" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -10616,10 +10622,10 @@
         <v>326</v>
       </c>
       <c r="M81" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N81" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O81" t="s">
         <v>36</v>
@@ -10631,25 +10637,25 @@
         <v>36</v>
       </c>
       <c r="R81" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="S81" t="s">
         <v>36</v>
       </c>
       <c r="T81" t="s">
+        <v>382</v>
+      </c>
+      <c r="U81" t="s">
+        <v>36</v>
+      </c>
+      <c r="V81" t="s">
+        <v>36</v>
+      </c>
+      <c r="W81" t="s">
+        <v>36</v>
+      </c>
+      <c r="X81" t="s">
         <v>383</v>
-      </c>
-      <c r="U81" t="s">
-        <v>36</v>
-      </c>
-      <c r="V81" t="s">
-        <v>36</v>
-      </c>
-      <c r="W81" t="s">
-        <v>36</v>
-      </c>
-      <c r="X81" t="s">
-        <v>384</v>
       </c>
       <c r="Y81" t="s">
         <v>36</v>
@@ -10684,7 +10690,7 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -10711,50 +10717,50 @@
         <v>161</v>
       </c>
       <c r="J82" t="s">
+        <v>162</v>
+      </c>
+      <c r="K82" t="s">
+        <v>171</v>
+      </c>
+      <c r="L82" t="s">
+        <v>326</v>
+      </c>
+      <c r="M82" t="s">
+        <v>366</v>
+      </c>
+      <c r="N82" t="s">
+        <v>367</v>
+      </c>
+      <c r="O82" t="s">
+        <v>36</v>
+      </c>
+      <c r="P82" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>36</v>
+      </c>
+      <c r="R82" t="s">
+        <v>368</v>
+      </c>
+      <c r="S82" t="s">
+        <v>36</v>
+      </c>
+      <c r="T82" t="s">
+        <v>385</v>
+      </c>
+      <c r="U82" t="s">
+        <v>36</v>
+      </c>
+      <c r="V82" t="s">
+        <v>36</v>
+      </c>
+      <c r="W82" t="s">
+        <v>36</v>
+      </c>
+      <c r="X82" t="s">
         <v>386</v>
       </c>
-      <c r="K82" t="s">
-        <v>36</v>
-      </c>
-      <c r="L82" t="s">
-        <v>36</v>
-      </c>
-      <c r="M82" t="s">
-        <v>36</v>
-      </c>
-      <c r="N82" t="s">
-        <v>387</v>
-      </c>
-      <c r="O82" t="s">
-        <v>36</v>
-      </c>
-      <c r="P82" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>36</v>
-      </c>
-      <c r="R82" t="s">
-        <v>388</v>
-      </c>
-      <c r="S82" t="s">
-        <v>36</v>
-      </c>
-      <c r="T82" t="s">
-        <v>389</v>
-      </c>
-      <c r="U82" t="s">
-        <v>36</v>
-      </c>
-      <c r="V82" t="s">
-        <v>36</v>
-      </c>
-      <c r="W82" t="s">
-        <v>36</v>
-      </c>
-      <c r="X82" t="s">
-        <v>36</v>
-      </c>
       <c r="Y82" t="s">
         <v>36</v>
       </c>
@@ -10783,12 +10789,12 @@
         <v>36</v>
       </c>
       <c r="AH82" t="s">
-        <v>390</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s">
         <v>35</v>
@@ -10812,87 +10818,87 @@
         <v>87</v>
       </c>
       <c r="I83" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="J83" t="s">
+        <v>388</v>
+      </c>
+      <c r="K83" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" t="s">
+        <v>36</v>
+      </c>
+      <c r="M83" t="s">
+        <v>36</v>
+      </c>
+      <c r="N83" t="s">
+        <v>389</v>
+      </c>
+      <c r="O83" t="s">
+        <v>36</v>
+      </c>
+      <c r="P83" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>36</v>
+      </c>
+      <c r="R83" t="s">
+        <v>390</v>
+      </c>
+      <c r="S83" t="s">
+        <v>36</v>
+      </c>
+      <c r="T83" t="s">
+        <v>391</v>
+      </c>
+      <c r="U83" t="s">
+        <v>36</v>
+      </c>
+      <c r="V83" t="s">
+        <v>36</v>
+      </c>
+      <c r="W83" t="s">
+        <v>36</v>
+      </c>
+      <c r="X83" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH83" t="s">
         <v>392</v>
-      </c>
-      <c r="K83" t="s">
-        <v>393</v>
-      </c>
-      <c r="L83" t="s">
-        <v>394</v>
-      </c>
-      <c r="M83" t="s">
-        <v>395</v>
-      </c>
-      <c r="N83" t="s">
-        <v>396</v>
-      </c>
-      <c r="O83" t="s">
-        <v>397</v>
-      </c>
-      <c r="P83" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>36</v>
-      </c>
-      <c r="R83" t="s">
-        <v>398</v>
-      </c>
-      <c r="S83" t="s">
-        <v>36</v>
-      </c>
-      <c r="T83" t="s">
-        <v>399</v>
-      </c>
-      <c r="U83" t="s">
-        <v>36</v>
-      </c>
-      <c r="V83" t="s">
-        <v>36</v>
-      </c>
-      <c r="W83" t="s">
-        <v>36</v>
-      </c>
-      <c r="X83" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B84" t="s">
         <v>35</v>
@@ -10919,49 +10925,49 @@
         <v>88</v>
       </c>
       <c r="J84" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K84" t="s">
+        <v>395</v>
+      </c>
+      <c r="L84" t="s">
+        <v>396</v>
+      </c>
+      <c r="M84" t="s">
+        <v>397</v>
+      </c>
+      <c r="N84" t="s">
+        <v>398</v>
+      </c>
+      <c r="O84" t="s">
+        <v>399</v>
+      </c>
+      <c r="P84" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>36</v>
+      </c>
+      <c r="R84" t="s">
+        <v>400</v>
+      </c>
+      <c r="S84" t="s">
+        <v>36</v>
+      </c>
+      <c r="T84" t="s">
+        <v>401</v>
+      </c>
+      <c r="U84" t="s">
+        <v>36</v>
+      </c>
+      <c r="V84" t="s">
+        <v>36</v>
+      </c>
+      <c r="W84" t="s">
+        <v>36</v>
+      </c>
+      <c r="X84" t="s">
         <v>402</v>
-      </c>
-      <c r="L84" t="s">
-        <v>36</v>
-      </c>
-      <c r="M84" t="s">
-        <v>403</v>
-      </c>
-      <c r="N84" t="s">
-        <v>404</v>
-      </c>
-      <c r="O84" t="s">
-        <v>36</v>
-      </c>
-      <c r="P84" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>36</v>
-      </c>
-      <c r="R84" t="s">
-        <v>405</v>
-      </c>
-      <c r="S84" t="s">
-        <v>36</v>
-      </c>
-      <c r="T84" t="s">
-        <v>406</v>
-      </c>
-      <c r="U84" t="s">
-        <v>36</v>
-      </c>
-      <c r="V84" t="s">
-        <v>36</v>
-      </c>
-      <c r="W84" t="s">
-        <v>36</v>
-      </c>
-      <c r="X84" t="s">
-        <v>407</v>
       </c>
       <c r="Y84" t="s">
         <v>36</v>
@@ -10996,7 +11002,7 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B85" t="s">
         <v>35</v>
@@ -11023,49 +11029,49 @@
         <v>88</v>
       </c>
       <c r="J85" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K85" t="s">
+        <v>404</v>
+      </c>
+      <c r="L85" t="s">
+        <v>36</v>
+      </c>
+      <c r="M85" t="s">
+        <v>405</v>
+      </c>
+      <c r="N85" t="s">
+        <v>406</v>
+      </c>
+      <c r="O85" t="s">
+        <v>36</v>
+      </c>
+      <c r="P85" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>36</v>
+      </c>
+      <c r="R85" t="s">
+        <v>407</v>
+      </c>
+      <c r="S85" t="s">
+        <v>36</v>
+      </c>
+      <c r="T85" t="s">
+        <v>408</v>
+      </c>
+      <c r="U85" t="s">
+        <v>36</v>
+      </c>
+      <c r="V85" t="s">
+        <v>36</v>
+      </c>
+      <c r="W85" t="s">
+        <v>36</v>
+      </c>
+      <c r="X85" t="s">
         <v>409</v>
-      </c>
-      <c r="L85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M85" t="s">
-        <v>36</v>
-      </c>
-      <c r="N85" t="s">
-        <v>410</v>
-      </c>
-      <c r="O85" t="s">
-        <v>36</v>
-      </c>
-      <c r="P85" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>36</v>
-      </c>
-      <c r="R85" t="s">
-        <v>411</v>
-      </c>
-      <c r="S85" t="s">
-        <v>36</v>
-      </c>
-      <c r="T85" t="s">
-        <v>412</v>
-      </c>
-      <c r="U85" t="s">
-        <v>36</v>
-      </c>
-      <c r="V85" t="s">
-        <v>36</v>
-      </c>
-      <c r="W85" t="s">
-        <v>36</v>
-      </c>
-      <c r="X85" t="s">
-        <v>159</v>
       </c>
       <c r="Y85" t="s">
         <v>36</v>
@@ -11100,7 +11106,7 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
@@ -11127,10 +11133,10 @@
         <v>88</v>
       </c>
       <c r="J86" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K86" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L86" t="s">
         <v>36</v>
@@ -11139,7 +11145,7 @@
         <v>36</v>
       </c>
       <c r="N86" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O86" t="s">
         <v>36</v>
@@ -11151,7 +11157,7 @@
         <v>36</v>
       </c>
       <c r="R86" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="S86" t="s">
         <v>36</v>
@@ -11169,36 +11175,140 @@
         <v>36</v>
       </c>
       <c r="X86" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>415</v>
       </c>
-      <c r="Y86" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH86" t="s">
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" t="s">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s">
+        <v>87</v>
+      </c>
+      <c r="I87" t="s">
+        <v>88</v>
+      </c>
+      <c r="J87" t="s">
+        <v>394</v>
+      </c>
+      <c r="K87" t="s">
+        <v>411</v>
+      </c>
+      <c r="L87" t="s">
+        <v>36</v>
+      </c>
+      <c r="M87" t="s">
+        <v>36</v>
+      </c>
+      <c r="N87" t="s">
+        <v>412</v>
+      </c>
+      <c r="O87" t="s">
+        <v>36</v>
+      </c>
+      <c r="P87" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>36</v>
+      </c>
+      <c r="R87" t="s">
+        <v>413</v>
+      </c>
+      <c r="S87" t="s">
+        <v>36</v>
+      </c>
+      <c r="T87" t="s">
+        <v>416</v>
+      </c>
+      <c r="U87" t="s">
+        <v>36</v>
+      </c>
+      <c r="V87" t="s">
+        <v>36</v>
+      </c>
+      <c r="W87" t="s">
+        <v>36</v>
+      </c>
+      <c r="X87" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH87" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11218,495 +11328,495 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="R1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="S1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="T1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="V1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="W1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="X1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Y1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AA1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AB1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AC1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AD1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AE1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AH1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AI1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AJ1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AK1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AP1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AQ1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AR1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AS1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AT1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AU1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AV1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AW1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AX1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AY1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AZ1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="BA1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="BB1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="BC1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="BD1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="BE1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="BF1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="BG1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="BH1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="BI1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="BJ1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="BK1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="BL1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="BM1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="BN1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="BO1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="BP1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="BQ1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="BR1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="BS1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="BT1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="BU1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="BV1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="BW1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="BX1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="BY1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="BZ1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="CA1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="CB1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="CC1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="CD1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="CE1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="CF1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="CG1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="CH1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="CI1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="CJ1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="CK1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="CL1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="CM1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="CN1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="CO1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="CP1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="CQ1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="CR1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="CS1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="CT1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="CU1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="CV1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="CW1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="CX1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="CY1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="CZ1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="DA1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="DB1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="DC1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="DD1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="DE1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="DF1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="DG1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="DH1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="DI1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="DJ1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="DK1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="DL1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="DM1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="DN1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="DO1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="DP1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="DQ1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="DR1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="DS1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="DT1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="DU1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="DV1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="DW1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="DX1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="DY1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="DZ1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="EA1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="EB1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="EC1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="ED1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="EE1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="EF1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="EG1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="EH1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="EI1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="EJ1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="EK1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="EL1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="EM1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="EN1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="EO1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="EP1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="EQ1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="ER1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="ES1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="ET1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="EU1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="EV1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="EW1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="EX1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="EY1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="EZ1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="FA1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="FB1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="FC1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="FD1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -11718,428 +11828,428 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>584</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>585</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>587</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>589</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>598</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>599</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>600</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>601</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>603</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>604</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>605</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>606</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>607</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>580</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>582</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>583</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>584</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>608</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>609</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>610</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>611</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>612</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>613</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>614</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>615</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>616</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>617</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>585</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>586</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>587</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>588</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>591</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>592</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>593</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>594</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>595</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>596</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>597</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>598</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>599</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>600</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>601</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>603</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>604</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>605</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>578</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>606</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>607</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>608</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>609</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>610</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>611</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>612</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>613</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>614</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>615</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>583</v>
-      </c>
       <c r="ES2" t="s">
         <v>36</v>
       </c>
@@ -12150,19 +12260,19 @@
         <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="EW2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="EX2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="FA2" t="s">
         <v>36</v>
@@ -12193,10 +12303,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Arthropoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Arthropoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="625">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Chthamalidae</t>
+  </si>
+  <si>
+    <t>Chthamalinae</t>
   </si>
   <si>
     <t>Chthamalus</t>
@@ -3036,7 +3039,7 @@
         <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s">
         <v>36</v>
@@ -3045,13 +3048,13 @@
         <v>36</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
         <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s">
         <v>36</v>
@@ -3063,7 +3066,7 @@
         <v>36</v>
       </c>
       <c r="X8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s">
         <v>36</v>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -3113,19 +3116,19 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -3134,10 +3137,10 @@
         <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
         <v>36</v>
@@ -3149,13 +3152,13 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
         <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U9" t="s">
         <v>36</v>
@@ -3167,7 +3170,7 @@
         <v>36</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="s">
         <v>36</v>
@@ -3202,7 +3205,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -3220,28 +3223,28 @@
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
         <v>36</v>
@@ -3253,13 +3256,13 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S10" t="s">
         <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U10" t="s">
         <v>36</v>
@@ -3271,7 +3274,7 @@
         <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y10" t="s">
         <v>36</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -3324,31 +3327,31 @@
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s">
         <v>36</v>
@@ -3357,13 +3360,13 @@
         <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S11" t="s">
         <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U11" t="s">
         <v>36</v>
@@ -3375,7 +3378,7 @@
         <v>36</v>
       </c>
       <c r="X11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y11" t="s">
         <v>36</v>
@@ -3410,7 +3413,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -3428,28 +3431,28 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
         <v>36</v>
@@ -3461,13 +3464,13 @@
         <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S12" t="s">
         <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U12" t="s">
         <v>36</v>
@@ -3479,7 +3482,7 @@
         <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y12" t="s">
         <v>36</v>
@@ -3514,7 +3517,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -3532,28 +3535,28 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
         <v>36</v>
@@ -3565,13 +3568,13 @@
         <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
         <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U13" t="s">
         <v>36</v>
@@ -3583,7 +3586,7 @@
         <v>36</v>
       </c>
       <c r="X13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y13" t="s">
         <v>36</v>
@@ -3618,7 +3621,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -3636,28 +3639,28 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
         <v>36</v>
@@ -3669,13 +3672,13 @@
         <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S14" t="s">
         <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U14" t="s">
         <v>36</v>
@@ -3687,7 +3690,7 @@
         <v>36</v>
       </c>
       <c r="X14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y14" t="s">
         <v>36</v>
@@ -3722,7 +3725,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -3740,31 +3743,31 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P15" t="s">
         <v>36</v>
@@ -3773,13 +3776,13 @@
         <v>36</v>
       </c>
       <c r="R15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S15" t="s">
         <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U15" t="s">
         <v>36</v>
@@ -3791,7 +3794,7 @@
         <v>36</v>
       </c>
       <c r="X15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y15" t="s">
         <v>36</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -3844,31 +3847,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P16" t="s">
         <v>36</v>
@@ -3877,13 +3880,13 @@
         <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S16" t="s">
         <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U16" t="s">
         <v>36</v>
@@ -3895,7 +3898,7 @@
         <v>36</v>
       </c>
       <c r="X16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y16" t="s">
         <v>36</v>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -3948,28 +3951,28 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O17" t="s">
         <v>36</v>
@@ -3981,13 +3984,13 @@
         <v>36</v>
       </c>
       <c r="R17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S17" t="s">
         <v>36</v>
       </c>
       <c r="T17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U17" t="s">
         <v>36</v>
@@ -3999,7 +4002,7 @@
         <v>36</v>
       </c>
       <c r="X17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y17" t="s">
         <v>36</v>
@@ -4034,7 +4037,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -4052,28 +4055,28 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s">
         <v>36</v>
@@ -4085,13 +4088,13 @@
         <v>36</v>
       </c>
       <c r="R18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s">
         <v>36</v>
       </c>
       <c r="T18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U18" t="s">
         <v>36</v>
@@ -4103,7 +4106,7 @@
         <v>36</v>
       </c>
       <c r="X18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y18" t="s">
         <v>36</v>
@@ -4138,7 +4141,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -4156,28 +4159,28 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
         <v>36</v>
@@ -4189,13 +4192,13 @@
         <v>36</v>
       </c>
       <c r="R19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S19" t="s">
         <v>36</v>
       </c>
       <c r="T19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U19" t="s">
         <v>36</v>
@@ -4207,7 +4210,7 @@
         <v>36</v>
       </c>
       <c r="X19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y19" t="s">
         <v>36</v>
@@ -4242,7 +4245,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -4260,28 +4263,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O20" t="s">
         <v>36</v>
@@ -4293,13 +4296,13 @@
         <v>36</v>
       </c>
       <c r="R20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S20" t="s">
         <v>36</v>
       </c>
       <c r="T20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U20" t="s">
         <v>36</v>
@@ -4311,7 +4314,7 @@
         <v>36</v>
       </c>
       <c r="X20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y20" t="s">
         <v>36</v>
@@ -4346,7 +4349,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -4364,31 +4367,31 @@
         <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P21" t="s">
         <v>36</v>
@@ -4397,13 +4400,13 @@
         <v>36</v>
       </c>
       <c r="R21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S21" t="s">
         <v>36</v>
       </c>
       <c r="T21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U21" t="s">
         <v>36</v>
@@ -4415,7 +4418,7 @@
         <v>36</v>
       </c>
       <c r="X21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y21" t="s">
         <v>36</v>
@@ -4450,7 +4453,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -4468,31 +4471,31 @@
         <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" t="s">
         <v>36</v>
@@ -4501,13 +4504,13 @@
         <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S22" t="s">
         <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U22" t="s">
         <v>36</v>
@@ -4519,7 +4522,7 @@
         <v>36</v>
       </c>
       <c r="X22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y22" t="s">
         <v>36</v>
@@ -4554,7 +4557,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -4572,28 +4575,28 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s">
         <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O23" t="s">
         <v>36</v>
@@ -4605,13 +4608,13 @@
         <v>36</v>
       </c>
       <c r="R23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S23" t="s">
         <v>36</v>
       </c>
       <c r="T23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U23" t="s">
         <v>36</v>
@@ -4623,7 +4626,7 @@
         <v>36</v>
       </c>
       <c r="X23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y23" t="s">
         <v>36</v>
@@ -4653,12 +4656,12 @@
         <v>36</v>
       </c>
       <c r="AH23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -4676,28 +4679,28 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
         <v>36</v>
@@ -4709,13 +4712,13 @@
         <v>36</v>
       </c>
       <c r="R24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S24" t="s">
         <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U24" t="s">
         <v>36</v>
@@ -4727,7 +4730,7 @@
         <v>36</v>
       </c>
       <c r="X24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y24" t="s">
         <v>36</v>
@@ -4762,7 +4765,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -4780,28 +4783,28 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O25" t="s">
         <v>36</v>
@@ -4813,13 +4816,13 @@
         <v>36</v>
       </c>
       <c r="R25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S25" t="s">
         <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U25" t="s">
         <v>36</v>
@@ -4831,7 +4834,7 @@
         <v>36</v>
       </c>
       <c r="X25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y25" t="s">
         <v>36</v>
@@ -4866,7 +4869,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -4884,28 +4887,28 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s">
         <v>36</v>
@@ -4917,13 +4920,13 @@
         <v>36</v>
       </c>
       <c r="R26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S26" t="s">
         <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U26" t="s">
         <v>36</v>
@@ -4935,7 +4938,7 @@
         <v>36</v>
       </c>
       <c r="X26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s">
         <v>36</v>
@@ -4970,7 +4973,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -4988,28 +4991,28 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O27" t="s">
         <v>36</v>
@@ -5021,13 +5024,13 @@
         <v>36</v>
       </c>
       <c r="R27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S27" t="s">
         <v>36</v>
       </c>
       <c r="T27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U27" t="s">
         <v>36</v>
@@ -5039,7 +5042,7 @@
         <v>36</v>
       </c>
       <c r="X27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y27" t="s">
         <v>36</v>
@@ -5074,7 +5077,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -5092,28 +5095,28 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O28" t="s">
         <v>36</v>
@@ -5125,13 +5128,13 @@
         <v>36</v>
       </c>
       <c r="R28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S28" t="s">
         <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U28" t="s">
         <v>36</v>
@@ -5143,7 +5146,7 @@
         <v>36</v>
       </c>
       <c r="X28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y28" t="s">
         <v>36</v>
@@ -5178,7 +5181,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -5196,28 +5199,28 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O29" t="s">
         <v>36</v>
@@ -5229,13 +5232,13 @@
         <v>36</v>
       </c>
       <c r="R29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S29" t="s">
         <v>36</v>
       </c>
       <c r="T29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U29" t="s">
         <v>36</v>
@@ -5247,7 +5250,7 @@
         <v>36</v>
       </c>
       <c r="X29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y29" t="s">
         <v>36</v>
@@ -5282,7 +5285,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -5300,28 +5303,28 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O30" t="s">
         <v>36</v>
@@ -5333,13 +5336,13 @@
         <v>36</v>
       </c>
       <c r="R30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S30" t="s">
         <v>36</v>
       </c>
       <c r="T30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U30" t="s">
         <v>36</v>
@@ -5351,7 +5354,7 @@
         <v>36</v>
       </c>
       <c r="X30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y30" t="s">
         <v>36</v>
@@ -5386,7 +5389,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -5404,28 +5407,28 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O31" t="s">
         <v>36</v>
@@ -5437,13 +5440,13 @@
         <v>36</v>
       </c>
       <c r="R31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S31" t="s">
         <v>36</v>
       </c>
       <c r="T31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U31" t="s">
         <v>36</v>
@@ -5455,7 +5458,7 @@
         <v>36</v>
       </c>
       <c r="X31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y31" t="s">
         <v>36</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -5508,28 +5511,28 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O32" t="s">
         <v>36</v>
@@ -5541,13 +5544,13 @@
         <v>36</v>
       </c>
       <c r="R32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S32" t="s">
         <v>36</v>
       </c>
       <c r="T32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U32" t="s">
         <v>36</v>
@@ -5559,7 +5562,7 @@
         <v>36</v>
       </c>
       <c r="X32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y32" t="s">
         <v>36</v>
@@ -5594,7 +5597,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -5612,28 +5615,28 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O33" t="s">
         <v>36</v>
@@ -5645,13 +5648,13 @@
         <v>36</v>
       </c>
       <c r="R33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S33" t="s">
         <v>36</v>
       </c>
       <c r="T33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U33" t="s">
         <v>36</v>
@@ -5663,7 +5666,7 @@
         <v>36</v>
       </c>
       <c r="X33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y33" t="s">
         <v>36</v>
@@ -5698,7 +5701,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -5716,28 +5719,28 @@
         <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O34" t="s">
         <v>36</v>
@@ -5749,13 +5752,13 @@
         <v>36</v>
       </c>
       <c r="R34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S34" t="s">
         <v>36</v>
       </c>
       <c r="T34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U34" t="s">
         <v>36</v>
@@ -5767,7 +5770,7 @@
         <v>36</v>
       </c>
       <c r="X34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y34" t="s">
         <v>36</v>
@@ -5802,7 +5805,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -5820,28 +5823,28 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O35" t="s">
         <v>36</v>
@@ -5853,13 +5856,13 @@
         <v>36</v>
       </c>
       <c r="R35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S35" t="s">
         <v>36</v>
       </c>
       <c r="T35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U35" t="s">
         <v>36</v>
@@ -5871,7 +5874,7 @@
         <v>36</v>
       </c>
       <c r="X35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y35" t="s">
         <v>36</v>
@@ -5906,7 +5909,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -5924,28 +5927,28 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O36" t="s">
         <v>36</v>
@@ -5957,13 +5960,13 @@
         <v>36</v>
       </c>
       <c r="R36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S36" t="s">
         <v>36</v>
       </c>
       <c r="T36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U36" t="s">
         <v>36</v>
@@ -5975,7 +5978,7 @@
         <v>36</v>
       </c>
       <c r="X36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y36" t="s">
         <v>36</v>
@@ -6010,7 +6013,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -6028,28 +6031,28 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O37" t="s">
         <v>36</v>
@@ -6061,13 +6064,13 @@
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
       </c>
       <c r="T37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U37" t="s">
         <v>36</v>
@@ -6079,7 +6082,7 @@
         <v>36</v>
       </c>
       <c r="X37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y37" t="s">
         <v>36</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -6132,28 +6135,28 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O38" t="s">
         <v>36</v>
@@ -6165,13 +6168,13 @@
         <v>36</v>
       </c>
       <c r="R38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S38" t="s">
         <v>36</v>
       </c>
       <c r="T38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U38" t="s">
         <v>36</v>
@@ -6183,7 +6186,7 @@
         <v>36</v>
       </c>
       <c r="X38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y38" t="s">
         <v>36</v>
@@ -6218,7 +6221,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -6236,28 +6239,28 @@
         <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O39" t="s">
         <v>36</v>
@@ -6269,13 +6272,13 @@
         <v>36</v>
       </c>
       <c r="R39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S39" t="s">
         <v>36</v>
       </c>
       <c r="T39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U39" t="s">
         <v>36</v>
@@ -6287,7 +6290,7 @@
         <v>36</v>
       </c>
       <c r="X39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y39" t="s">
         <v>36</v>
@@ -6322,7 +6325,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -6340,28 +6343,28 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O40" t="s">
         <v>36</v>
@@ -6373,13 +6376,13 @@
         <v>36</v>
       </c>
       <c r="R40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S40" t="s">
         <v>36</v>
       </c>
       <c r="T40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U40" t="s">
         <v>36</v>
@@ -6391,7 +6394,7 @@
         <v>36</v>
       </c>
       <c r="X40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y40" t="s">
         <v>36</v>
@@ -6426,7 +6429,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -6444,28 +6447,28 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O41" t="s">
         <v>36</v>
@@ -6477,13 +6480,13 @@
         <v>36</v>
       </c>
       <c r="R41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S41" t="s">
         <v>36</v>
       </c>
       <c r="T41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U41" t="s">
         <v>36</v>
@@ -6495,7 +6498,7 @@
         <v>36</v>
       </c>
       <c r="X41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y41" t="s">
         <v>36</v>
@@ -6530,7 +6533,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -6548,28 +6551,28 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O42" t="s">
         <v>36</v>
@@ -6581,13 +6584,13 @@
         <v>36</v>
       </c>
       <c r="R42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S42" t="s">
         <v>36</v>
       </c>
       <c r="T42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U42" t="s">
         <v>36</v>
@@ -6599,7 +6602,7 @@
         <v>36</v>
       </c>
       <c r="X42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y42" t="s">
         <v>36</v>
@@ -6634,7 +6637,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -6652,28 +6655,28 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O43" t="s">
         <v>36</v>
@@ -6685,13 +6688,13 @@
         <v>36</v>
       </c>
       <c r="R43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S43" t="s">
         <v>36</v>
       </c>
       <c r="T43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U43" t="s">
         <v>36</v>
@@ -6703,7 +6706,7 @@
         <v>36</v>
       </c>
       <c r="X43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y43" t="s">
         <v>36</v>
@@ -6738,7 +6741,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -6756,28 +6759,28 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O44" t="s">
         <v>36</v>
@@ -6789,13 +6792,13 @@
         <v>36</v>
       </c>
       <c r="R44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S44" t="s">
         <v>36</v>
       </c>
       <c r="T44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U44" t="s">
         <v>36</v>
@@ -6807,7 +6810,7 @@
         <v>36</v>
       </c>
       <c r="X44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y44" t="s">
         <v>36</v>
@@ -6842,7 +6845,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -6860,28 +6863,28 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O45" t="s">
         <v>36</v>
@@ -6893,13 +6896,13 @@
         <v>36</v>
       </c>
       <c r="R45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S45" t="s">
         <v>36</v>
       </c>
       <c r="T45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U45" t="s">
         <v>36</v>
@@ -6911,7 +6914,7 @@
         <v>36</v>
       </c>
       <c r="X45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y45" t="s">
         <v>36</v>
@@ -6946,7 +6949,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
@@ -6964,28 +6967,28 @@
         <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O46" t="s">
         <v>36</v>
@@ -6997,13 +7000,13 @@
         <v>36</v>
       </c>
       <c r="R46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S46" t="s">
         <v>36</v>
       </c>
       <c r="T46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U46" t="s">
         <v>36</v>
@@ -7015,7 +7018,7 @@
         <v>36</v>
       </c>
       <c r="X46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y46" t="s">
         <v>36</v>
@@ -7050,7 +7053,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -7068,28 +7071,28 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O47" t="s">
         <v>36</v>
@@ -7101,13 +7104,13 @@
         <v>36</v>
       </c>
       <c r="R47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S47" t="s">
         <v>36</v>
       </c>
       <c r="T47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U47" t="s">
         <v>36</v>
@@ -7119,7 +7122,7 @@
         <v>36</v>
       </c>
       <c r="X47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y47" t="s">
         <v>36</v>
@@ -7154,7 +7157,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -7172,28 +7175,28 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O48" t="s">
         <v>36</v>
@@ -7205,13 +7208,13 @@
         <v>36</v>
       </c>
       <c r="R48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S48" t="s">
         <v>36</v>
       </c>
       <c r="T48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U48" t="s">
         <v>36</v>
@@ -7223,7 +7226,7 @@
         <v>36</v>
       </c>
       <c r="X48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y48" t="s">
         <v>36</v>
@@ -7258,7 +7261,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -7276,28 +7279,28 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M49" t="s">
         <v>36</v>
       </c>
       <c r="N49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s">
         <v>36</v>
@@ -7309,13 +7312,13 @@
         <v>36</v>
       </c>
       <c r="R49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S49" t="s">
         <v>36</v>
       </c>
       <c r="T49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U49" t="s">
         <v>36</v>
@@ -7327,7 +7330,7 @@
         <v>36</v>
       </c>
       <c r="X49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y49" t="s">
         <v>36</v>
@@ -7362,7 +7365,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
@@ -7380,28 +7383,28 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O50" t="s">
         <v>36</v>
@@ -7413,13 +7416,13 @@
         <v>36</v>
       </c>
       <c r="R50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S50" t="s">
         <v>36</v>
       </c>
       <c r="T50" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="U50" t="s">
         <v>36</v>
@@ -7431,7 +7434,7 @@
         <v>36</v>
       </c>
       <c r="X50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y50" t="s">
         <v>36</v>
@@ -7466,7 +7469,7 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -7484,28 +7487,28 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L51" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O51" t="s">
         <v>36</v>
@@ -7517,13 +7520,13 @@
         <v>36</v>
       </c>
       <c r="R51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S51" t="s">
         <v>36</v>
       </c>
       <c r="T51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U51" t="s">
         <v>36</v>
@@ -7535,7 +7538,7 @@
         <v>36</v>
       </c>
       <c r="X51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y51" t="s">
         <v>36</v>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
@@ -7588,28 +7591,28 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O52" t="s">
         <v>36</v>
@@ -7621,13 +7624,13 @@
         <v>36</v>
       </c>
       <c r="R52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S52" t="s">
         <v>36</v>
       </c>
       <c r="T52" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U52" t="s">
         <v>36</v>
@@ -7639,7 +7642,7 @@
         <v>36</v>
       </c>
       <c r="X52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y52" t="s">
         <v>36</v>
@@ -7674,7 +7677,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -7692,28 +7695,28 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O53" t="s">
         <v>36</v>
@@ -7725,13 +7728,13 @@
         <v>36</v>
       </c>
       <c r="R53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S53" t="s">
         <v>36</v>
       </c>
       <c r="T53" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="U53" t="s">
         <v>36</v>
@@ -7743,7 +7746,7 @@
         <v>36</v>
       </c>
       <c r="X53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y53" t="s">
         <v>36</v>
@@ -7778,7 +7781,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -7796,28 +7799,28 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O54" t="s">
         <v>36</v>
@@ -7829,13 +7832,13 @@
         <v>36</v>
       </c>
       <c r="R54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S54" t="s">
         <v>36</v>
       </c>
       <c r="T54" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U54" t="s">
         <v>36</v>
@@ -7847,7 +7850,7 @@
         <v>36</v>
       </c>
       <c r="X54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y54" t="s">
         <v>36</v>
@@ -7882,7 +7885,7 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
@@ -7900,31 +7903,31 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M55" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O55" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P55" t="s">
         <v>36</v>
@@ -7933,13 +7936,13 @@
         <v>36</v>
       </c>
       <c r="R55" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S55" t="s">
         <v>36</v>
       </c>
       <c r="T55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U55" t="s">
         <v>36</v>
@@ -7951,7 +7954,7 @@
         <v>36</v>
       </c>
       <c r="X55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y55" t="s">
         <v>36</v>
@@ -7986,7 +7989,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -8004,31 +8007,31 @@
         <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M56" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P56" t="s">
         <v>36</v>
@@ -8037,13 +8040,13 @@
         <v>36</v>
       </c>
       <c r="R56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S56" t="s">
         <v>36</v>
       </c>
       <c r="T56" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U56" t="s">
         <v>36</v>
@@ -8055,7 +8058,7 @@
         <v>36</v>
       </c>
       <c r="X56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y56" t="s">
         <v>36</v>
@@ -8090,7 +8093,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
         <v>35</v>
@@ -8108,31 +8111,31 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P57" t="s">
         <v>36</v>
@@ -8141,13 +8144,13 @@
         <v>36</v>
       </c>
       <c r="R57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S57" t="s">
         <v>36</v>
       </c>
       <c r="T57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U57" t="s">
         <v>36</v>
@@ -8159,7 +8162,7 @@
         <v>36</v>
       </c>
       <c r="X57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y57" t="s">
         <v>36</v>
@@ -8194,7 +8197,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
@@ -8212,31 +8215,31 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P58" t="s">
         <v>36</v>
@@ -8245,13 +8248,13 @@
         <v>36</v>
       </c>
       <c r="R58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S58" t="s">
         <v>36</v>
       </c>
       <c r="T58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U58" t="s">
         <v>36</v>
@@ -8263,7 +8266,7 @@
         <v>36</v>
       </c>
       <c r="X58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y58" t="s">
         <v>36</v>
@@ -8298,7 +8301,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
@@ -8316,31 +8319,31 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P59" t="s">
         <v>36</v>
@@ -8349,13 +8352,13 @@
         <v>36</v>
       </c>
       <c r="R59" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S59" t="s">
         <v>36</v>
       </c>
       <c r="T59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U59" t="s">
         <v>36</v>
@@ -8367,7 +8370,7 @@
         <v>36</v>
       </c>
       <c r="X59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y59" t="s">
         <v>36</v>
@@ -8402,7 +8405,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
@@ -8420,31 +8423,31 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O60" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -8453,13 +8456,13 @@
         <v>36</v>
       </c>
       <c r="R60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S60" t="s">
         <v>36</v>
       </c>
       <c r="T60" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U60" t="s">
         <v>36</v>
@@ -8471,7 +8474,7 @@
         <v>36</v>
       </c>
       <c r="X60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y60" t="s">
         <v>36</v>
@@ -8506,7 +8509,7 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
@@ -8524,31 +8527,31 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P61" t="s">
         <v>36</v>
@@ -8557,13 +8560,13 @@
         <v>36</v>
       </c>
       <c r="R61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S61" t="s">
         <v>36</v>
       </c>
       <c r="T61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U61" t="s">
         <v>36</v>
@@ -8575,7 +8578,7 @@
         <v>36</v>
       </c>
       <c r="X61" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y61" t="s">
         <v>36</v>
@@ -8610,7 +8613,7 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
@@ -8628,31 +8631,31 @@
         <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L62" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N62" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P62" t="s">
         <v>36</v>
@@ -8661,13 +8664,13 @@
         <v>36</v>
       </c>
       <c r="R62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S62" t="s">
         <v>36</v>
       </c>
       <c r="T62" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U62" t="s">
         <v>36</v>
@@ -8679,7 +8682,7 @@
         <v>36</v>
       </c>
       <c r="X62" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y62" t="s">
         <v>36</v>
@@ -8714,7 +8717,7 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
         <v>35</v>
@@ -8732,31 +8735,31 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P63" t="s">
         <v>36</v>
@@ -8765,13 +8768,13 @@
         <v>36</v>
       </c>
       <c r="R63" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S63" t="s">
         <v>36</v>
       </c>
       <c r="T63" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U63" t="s">
         <v>36</v>
@@ -8783,7 +8786,7 @@
         <v>36</v>
       </c>
       <c r="X63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y63" t="s">
         <v>36</v>
@@ -8818,7 +8821,7 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
@@ -8836,28 +8839,28 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N64" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O64" t="s">
         <v>36</v>
@@ -8869,13 +8872,13 @@
         <v>36</v>
       </c>
       <c r="R64" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S64" t="s">
         <v>36</v>
       </c>
       <c r="T64" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U64" t="s">
         <v>36</v>
@@ -8887,7 +8890,7 @@
         <v>36</v>
       </c>
       <c r="X64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y64" t="s">
         <v>36</v>
@@ -8922,7 +8925,7 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
@@ -8940,28 +8943,28 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N65" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O65" t="s">
         <v>36</v>
@@ -8973,13 +8976,13 @@
         <v>36</v>
       </c>
       <c r="R65" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S65" t="s">
         <v>36</v>
       </c>
       <c r="T65" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U65" t="s">
         <v>36</v>
@@ -8991,7 +8994,7 @@
         <v>36</v>
       </c>
       <c r="X65" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y65" t="s">
         <v>36</v>
@@ -9026,7 +9029,7 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -9044,28 +9047,28 @@
         <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O66" t="s">
         <v>36</v>
@@ -9077,13 +9080,13 @@
         <v>36</v>
       </c>
       <c r="R66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S66" t="s">
         <v>36</v>
       </c>
       <c r="T66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U66" t="s">
         <v>36</v>
@@ -9095,7 +9098,7 @@
         <v>36</v>
       </c>
       <c r="X66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y66" t="s">
         <v>36</v>
@@ -9130,7 +9133,7 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
         <v>35</v>
@@ -9148,28 +9151,28 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L67" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N67" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O67" t="s">
         <v>36</v>
@@ -9181,13 +9184,13 @@
         <v>36</v>
       </c>
       <c r="R67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S67" t="s">
         <v>36</v>
       </c>
       <c r="T67" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U67" t="s">
         <v>36</v>
@@ -9199,7 +9202,7 @@
         <v>36</v>
       </c>
       <c r="X67" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y67" t="s">
         <v>36</v>
@@ -9234,7 +9237,7 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
@@ -9252,28 +9255,28 @@
         <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O68" t="s">
         <v>36</v>
@@ -9285,13 +9288,13 @@
         <v>36</v>
       </c>
       <c r="R68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S68" t="s">
         <v>36</v>
       </c>
       <c r="T68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U68" t="s">
         <v>36</v>
@@ -9303,7 +9306,7 @@
         <v>36</v>
       </c>
       <c r="X68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y68" t="s">
         <v>36</v>
@@ -9338,7 +9341,7 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
         <v>35</v>
@@ -9356,28 +9359,28 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N69" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O69" t="s">
         <v>36</v>
@@ -9389,13 +9392,13 @@
         <v>36</v>
       </c>
       <c r="R69" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S69" t="s">
         <v>36</v>
       </c>
       <c r="T69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U69" t="s">
         <v>36</v>
@@ -9407,7 +9410,7 @@
         <v>36</v>
       </c>
       <c r="X69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y69" t="s">
         <v>36</v>
@@ -9442,7 +9445,7 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B70" t="s">
         <v>35</v>
@@ -9460,28 +9463,28 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O70" t="s">
         <v>36</v>
@@ -9493,13 +9496,13 @@
         <v>36</v>
       </c>
       <c r="R70" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S70" t="s">
         <v>36</v>
       </c>
       <c r="T70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U70" t="s">
         <v>36</v>
@@ -9511,7 +9514,7 @@
         <v>36</v>
       </c>
       <c r="X70" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y70" t="s">
         <v>36</v>
@@ -9546,7 +9549,7 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B71" t="s">
         <v>35</v>
@@ -9564,28 +9567,28 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O71" t="s">
         <v>36</v>
@@ -9597,13 +9600,13 @@
         <v>36</v>
       </c>
       <c r="R71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S71" t="s">
         <v>36</v>
       </c>
       <c r="T71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U71" t="s">
         <v>36</v>
@@ -9615,7 +9618,7 @@
         <v>36</v>
       </c>
       <c r="X71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y71" t="s">
         <v>36</v>
@@ -9650,7 +9653,7 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -9668,28 +9671,28 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L72" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N72" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O72" t="s">
         <v>36</v>
@@ -9701,13 +9704,13 @@
         <v>36</v>
       </c>
       <c r="R72" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S72" t="s">
         <v>36</v>
       </c>
       <c r="T72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U72" t="s">
         <v>36</v>
@@ -9719,7 +9722,7 @@
         <v>36</v>
       </c>
       <c r="X72" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y72" t="s">
         <v>36</v>
@@ -9754,7 +9757,7 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s">
         <v>35</v>
@@ -9772,28 +9775,28 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M73" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O73" t="s">
         <v>36</v>
@@ -9805,13 +9808,13 @@
         <v>36</v>
       </c>
       <c r="R73" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S73" t="s">
         <v>36</v>
       </c>
       <c r="T73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U73" t="s">
         <v>36</v>
@@ -9823,7 +9826,7 @@
         <v>36</v>
       </c>
       <c r="X73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y73" t="s">
         <v>36</v>
@@ -9858,7 +9861,7 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B74" t="s">
         <v>35</v>
@@ -9876,28 +9879,28 @@
         <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L74" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O74" t="s">
         <v>36</v>
@@ -9909,13 +9912,13 @@
         <v>36</v>
       </c>
       <c r="R74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S74" t="s">
         <v>36</v>
       </c>
       <c r="T74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="U74" t="s">
         <v>36</v>
@@ -9927,7 +9930,7 @@
         <v>36</v>
       </c>
       <c r="X74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y74" t="s">
         <v>36</v>
@@ -9962,7 +9965,7 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
@@ -9980,28 +9983,28 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O75" t="s">
         <v>36</v>
@@ -10013,13 +10016,13 @@
         <v>36</v>
       </c>
       <c r="R75" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="S75" t="s">
         <v>36</v>
       </c>
       <c r="T75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U75" t="s">
         <v>36</v>
@@ -10031,7 +10034,7 @@
         <v>36</v>
       </c>
       <c r="X75" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y75" t="s">
         <v>36</v>
@@ -10066,7 +10069,7 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -10084,28 +10087,28 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L76" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O76" t="s">
         <v>36</v>
@@ -10117,13 +10120,13 @@
         <v>36</v>
       </c>
       <c r="R76" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S76" t="s">
         <v>36</v>
       </c>
       <c r="T76" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U76" t="s">
         <v>36</v>
@@ -10135,7 +10138,7 @@
         <v>36</v>
       </c>
       <c r="X76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y76" t="s">
         <v>36</v>
@@ -10170,7 +10173,7 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
         <v>35</v>
@@ -10188,28 +10191,28 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M77" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N77" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O77" t="s">
         <v>36</v>
@@ -10221,13 +10224,13 @@
         <v>36</v>
       </c>
       <c r="R77" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S77" t="s">
         <v>36</v>
       </c>
       <c r="T77" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="U77" t="s">
         <v>36</v>
@@ -10239,7 +10242,7 @@
         <v>36</v>
       </c>
       <c r="X77" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y77" t="s">
         <v>36</v>
@@ -10274,7 +10277,7 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
@@ -10292,28 +10295,28 @@
         <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L78" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M78" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N78" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O78" t="s">
         <v>36</v>
@@ -10325,13 +10328,13 @@
         <v>36</v>
       </c>
       <c r="R78" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S78" t="s">
         <v>36</v>
       </c>
       <c r="T78" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="U78" t="s">
         <v>36</v>
@@ -10343,7 +10346,7 @@
         <v>36</v>
       </c>
       <c r="X78" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y78" t="s">
         <v>36</v>
@@ -10378,7 +10381,7 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B79" t="s">
         <v>35</v>
@@ -10396,28 +10399,28 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L79" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M79" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N79" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O79" t="s">
         <v>36</v>
@@ -10429,13 +10432,13 @@
         <v>36</v>
       </c>
       <c r="R79" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S79" t="s">
         <v>36</v>
       </c>
       <c r="T79" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U79" t="s">
         <v>36</v>
@@ -10447,7 +10450,7 @@
         <v>36</v>
       </c>
       <c r="X79" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y79" t="s">
         <v>36</v>
@@ -10482,7 +10485,7 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B80" t="s">
         <v>35</v>
@@ -10500,28 +10503,28 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L80" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N80" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O80" t="s">
         <v>36</v>
@@ -10533,13 +10536,13 @@
         <v>36</v>
       </c>
       <c r="R80" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S80" t="s">
         <v>36</v>
       </c>
       <c r="T80" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U80" t="s">
         <v>36</v>
@@ -10551,7 +10554,7 @@
         <v>36</v>
       </c>
       <c r="X80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y80" t="s">
         <v>36</v>
@@ -10581,12 +10584,12 @@
         <v>36</v>
       </c>
       <c r="AH80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -10604,28 +10607,28 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O81" t="s">
         <v>36</v>
@@ -10637,13 +10640,13 @@
         <v>36</v>
       </c>
       <c r="R81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S81" t="s">
         <v>36</v>
       </c>
       <c r="T81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="U81" t="s">
         <v>36</v>
@@ -10655,7 +10658,7 @@
         <v>36</v>
       </c>
       <c r="X81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y81" t="s">
         <v>36</v>
@@ -10690,7 +10693,7 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -10708,28 +10711,28 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O82" t="s">
         <v>36</v>
@@ -10741,13 +10744,13 @@
         <v>36</v>
       </c>
       <c r="R82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S82" t="s">
         <v>36</v>
       </c>
       <c r="T82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="U82" t="s">
         <v>36</v>
@@ -10759,7 +10762,7 @@
         <v>36</v>
       </c>
       <c r="X82" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y82" t="s">
         <v>36</v>
@@ -10794,7 +10797,7 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B83" t="s">
         <v>35</v>
@@ -10812,16 +10815,16 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J83" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K83" t="s">
         <v>36</v>
@@ -10833,7 +10836,7 @@
         <v>36</v>
       </c>
       <c r="N83" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O83" t="s">
         <v>36</v>
@@ -10845,13 +10848,13 @@
         <v>36</v>
       </c>
       <c r="R83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S83" t="s">
         <v>36</v>
       </c>
       <c r="T83" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U83" t="s">
         <v>36</v>
@@ -10893,12 +10896,12 @@
         <v>36</v>
       </c>
       <c r="AH83" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B84" t="s">
         <v>35</v>
@@ -10916,31 +10919,31 @@
         <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K84" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L84" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M84" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N84" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O84" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P84" t="s">
         <v>36</v>
@@ -10949,13 +10952,13 @@
         <v>36</v>
       </c>
       <c r="R84" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="S84" t="s">
         <v>36</v>
       </c>
       <c r="T84" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U84" t="s">
         <v>36</v>
@@ -10967,7 +10970,7 @@
         <v>36</v>
       </c>
       <c r="X84" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y84" t="s">
         <v>36</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B85" t="s">
         <v>35</v>
@@ -11020,28 +11023,28 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K85" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L85" t="s">
         <v>36</v>
       </c>
       <c r="M85" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N85" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O85" t="s">
         <v>36</v>
@@ -11053,13 +11056,13 @@
         <v>36</v>
       </c>
       <c r="R85" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S85" t="s">
         <v>36</v>
       </c>
       <c r="T85" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U85" t="s">
         <v>36</v>
@@ -11071,7 +11074,7 @@
         <v>36</v>
       </c>
       <c r="X85" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y85" t="s">
         <v>36</v>
@@ -11106,7 +11109,7 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
@@ -11124,19 +11127,19 @@
         <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K86" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L86" t="s">
         <v>36</v>
@@ -11145,7 +11148,7 @@
         <v>36</v>
       </c>
       <c r="N86" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O86" t="s">
         <v>36</v>
@@ -11157,13 +11160,13 @@
         <v>36</v>
       </c>
       <c r="R86" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S86" t="s">
         <v>36</v>
       </c>
       <c r="T86" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U86" t="s">
         <v>36</v>
@@ -11175,7 +11178,7 @@
         <v>36</v>
       </c>
       <c r="X86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y86" t="s">
         <v>36</v>
@@ -11210,7 +11213,7 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B87" t="s">
         <v>35</v>
@@ -11228,19 +11231,19 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J87" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K87" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L87" t="s">
         <v>36</v>
@@ -11249,7 +11252,7 @@
         <v>36</v>
       </c>
       <c r="N87" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O87" t="s">
         <v>36</v>
@@ -11261,13 +11264,13 @@
         <v>36</v>
       </c>
       <c r="R87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S87" t="s">
         <v>36</v>
       </c>
       <c r="T87" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U87" t="s">
         <v>36</v>
@@ -11279,7 +11282,7 @@
         <v>36</v>
       </c>
       <c r="X87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y87" t="s">
         <v>36</v>
@@ -11328,495 +11331,495 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="W1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AB1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AC1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AD1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AE1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AH1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AP1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AQ1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AR1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AS1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AT1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AU1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AV1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AW1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AX1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AY1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AZ1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BA1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BB1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BC1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BD1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BE1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="BF1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="BG1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="BH1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="BI1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="BJ1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BK1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="BL1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BM1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="BN1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BO1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BP1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BQ1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BR1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BS1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BT1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="BU1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="BV1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="BW1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="BX1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="BY1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BZ1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="CA1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="CB1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="CC1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="CD1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="CE1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="CF1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="CG1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="CH1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="CI1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="CJ1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="CK1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CL1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="CM1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="CN1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CO1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CP1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CQ1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="CR1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="CS1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="CT1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="CU1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CV1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="CW1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="CX1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="CY1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="CZ1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DA1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DB1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DC1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="DD1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="DE1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="DF1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="DG1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="DH1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="DI1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="DJ1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="DK1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="DL1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="DM1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="DN1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="DO1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="DP1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="DQ1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="DR1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="DS1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="DT1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="DU1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="DV1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="DW1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="DX1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="DY1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="DZ1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="EA1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="EB1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="EC1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="ED1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="EE1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="EF1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="EG1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="EH1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="EI1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="EJ1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="EK1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="EL1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="EM1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="EN1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="EO1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="EP1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="EQ1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="ER1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="ES1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="ET1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="EU1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="EV1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="EW1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="EX1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="EY1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="EZ1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="FA1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="FB1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="FC1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FD1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -11828,428 +11831,428 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K2" t="s">
+        <v>583</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>585</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>586</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>589</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>599</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>600</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>601</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>603</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>604</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>605</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>606</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>607</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>608</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>581</v>
       </c>
-      <c r="K2" t="s">
-        <v>582</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>584</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>585</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>609</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>610</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>611</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>612</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>613</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>614</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>615</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>616</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>617</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>618</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>586</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>587</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>588</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>591</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>592</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>593</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>594</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>595</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>596</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>597</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>598</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>599</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>600</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>601</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>603</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>604</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>605</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>606</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>607</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>580</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>608</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>609</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>610</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>611</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>612</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>613</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>614</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>615</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>616</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>617</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>585</v>
-      </c>
       <c r="ES2" t="s">
         <v>36</v>
       </c>
@@ -12260,19 +12263,19 @@
         <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="EW2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="EX2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="FA2" t="s">
         <v>36</v>
@@ -12303,10 +12306,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Arthropoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Arthropoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="618">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1398,15 +1398,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -1749,9 +1740,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -1794,15 +1782,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -1812,7 +1791,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -11323,970 +11302,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="X1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AB1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AC1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AH1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AI1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AQ1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AR1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AS1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AT1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AU1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AV1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AW1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AX1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AY1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AZ1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BA1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BB1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BC1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BD1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="BE1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="BF1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="BG1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="BH1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="BI1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BJ1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="BK1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BL1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="BM1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BN1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BO1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BP1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BQ1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BR1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BS1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="BT1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="BU1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="BV1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="BW1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="BX1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BY1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BZ1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="CA1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="CB1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="CC1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="CD1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="CE1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="CF1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="CG1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="CH1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="CI1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="CJ1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CK1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="CL1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="CM1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CN1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CO1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CP1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="CQ1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="CR1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="CS1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="CT1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CU1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="CV1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="CW1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="CX1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="CY1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CZ1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DA1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DB1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="DC1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="DD1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="DE1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="DF1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="DG1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="DH1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="DI1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="DJ1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="DK1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="DL1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="DM1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="DN1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="DO1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="DP1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="DQ1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="DR1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="DS1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="DT1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="DU1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="DV1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="DW1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="DX1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="DY1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="DZ1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="EA1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="EB1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="EC1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="ED1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="EE1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="EF1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="EG1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="EH1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="EI1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="EJ1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="EK1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="EL1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="EM1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="EN1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="EO1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="EP1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="EQ1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="ER1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="ES1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="ET1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="EU1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="EV1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="EW1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="EX1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="EY1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="EZ1" t="s">
-        <v>573</v>
-      </c>
-      <c r="FA1" t="s">
         <v>574</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>575</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>576</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>578</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>579</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>580</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>581</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>582</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>583</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>584</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>585</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>586</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>587</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>588</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>589</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>590</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>591</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>592</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>593</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>594</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>595</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>596</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>597</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>598</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>599</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>600</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>601</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>577</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>602</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>603</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>604</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>605</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>606</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>607</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>608</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>581</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>609</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>610</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>611</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>582</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>612</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>613</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>614</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>615</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>616</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>617</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>618</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>586</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>619</v>
-      </c>
       <c r="EW2" t="s">
-        <v>620</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>621</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>622</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12306,10 +12261,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Arthropoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Arthropoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="616">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1404,9 +1404,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -1786,9 +1783,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -11302,10 +11296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>419</v>
       </c>
@@ -11771,466 +11765,463 @@
       <c r="EY1" t="s">
         <v>573</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>575</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>576</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>577</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>578</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>579</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>580</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>581</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>582</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>583</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>584</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>585</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>586</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>587</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>588</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>589</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>590</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>591</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>592</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>593</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>594</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>595</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>596</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>597</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>598</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>599</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>576</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>600</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>601</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>577</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>602</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>603</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>604</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>605</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>606</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>607</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>608</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>609</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>581</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>610</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>611</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>582</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>612</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>613</v>
       </c>
-      <c r="ET2" t="s">
-        <v>614</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>615</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -12239,9 +12230,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12261,10 +12249,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
